--- a/exiobase-oil-crops/data/Foreground direct.xlsx
+++ b/exiobase-oil-crops/data/Foreground direct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele\2.-0 LCA team Dropbox\2.-0 LCA consultants\ILCA\5 veg oil case_(LCI and CSVs)\CSV files\2_Five veg oils Exio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjamin.portner\Desktop\regionalized-lca-examples-master\regionalized-lca-examples\exiobase-oil-crops\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13776" windowHeight="3180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="132">
   <si>
     <t>From file: _RSPO_LCI_20130708v3(rad)</t>
   </si>
@@ -883,870 +883,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="574">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
+  <dxfs count="287">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -2622,7 +1761,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2884,23 +2023,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW967"/>
+  <dimension ref="A1:AW968"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" style="91" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" style="91" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="51" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3012,7 +2151,7 @@
       <c r="AU1" s="4"/>
       <c r="AV1" s="4"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3126,7 +2265,7 @@
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3240,7 +2379,7 @@
       <c r="AU3" s="17"/>
       <c r="AV3" s="17"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
@@ -3318,7 +2457,7 @@
       </c>
       <c r="AF4" s="18"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3432,7 +2571,7 @@
       <c r="AU5" s="20"/>
       <c r="AV5" s="20"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3484,16 +2623,7 @@
       <c r="AU6" s="20"/>
       <c r="AV6" s="20"/>
     </row>
-    <row r="7" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
@@ -3598,106 +2728,105 @@
       <c r="AU7" s="17"/>
       <c r="AV7" s="17"/>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="33">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-      <c r="AP8" s="34"/>
-      <c r="AQ8" s="34"/>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="34"/>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="34"/>
-      <c r="AV8" s="34"/>
-      <c r="AW8" s="34"/>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="17"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="17"/>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39">
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="33">
         <v>1</v>
       </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="40"/>
+      <c r="AF9" s="31"/>
       <c r="AG9" s="34"/>
       <c r="AH9" s="34"/>
       <c r="AI9" s="34"/>
@@ -3716,12 +2845,14 @@
       <c r="AV9" s="34"/>
       <c r="AW9" s="34"/>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="18"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="D10" s="35" t="s">
         <v>32</v>
       </c>
@@ -3731,11 +2862,11 @@
       <c r="H10" s="37"/>
       <c r="I10" s="37"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
+      <c r="K10" s="39">
+        <v>1</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39">
-        <v>1</v>
-      </c>
+      <c r="M10" s="39"/>
       <c r="N10" s="39"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
@@ -3773,10 +2904,10 @@
       <c r="AV10" s="34"/>
       <c r="AW10" s="34"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="35" t="s">
@@ -3790,16 +2921,16 @@
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39">
+        <v>1</v>
+      </c>
       <c r="N11" s="39"/>
       <c r="O11" s="39"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39"/>
       <c r="S11" s="39"/>
-      <c r="T11" s="39">
-        <v>1</v>
-      </c>
+      <c r="T11" s="39"/>
       <c r="U11" s="39"/>
       <c r="V11" s="39"/>
       <c r="W11" s="39"/>
@@ -3830,10 +2961,10 @@
       <c r="AV11" s="34"/>
       <c r="AW11" s="34"/>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="35" t="s">
@@ -3854,12 +2985,12 @@
       <c r="Q12" s="39"/>
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
+      <c r="T12" s="39">
+        <v>1</v>
+      </c>
       <c r="U12" s="39"/>
       <c r="V12" s="39"/>
-      <c r="W12" s="39">
-        <v>1</v>
-      </c>
+      <c r="W12" s="39"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
       <c r="Z12" s="40"/>
@@ -3887,10 +3018,10 @@
       <c r="AV12" s="34"/>
       <c r="AW12" s="34"/>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="35" t="s">
@@ -3914,12 +3045,12 @@
       <c r="T13" s="39"/>
       <c r="U13" s="39"/>
       <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
+      <c r="W13" s="39">
+        <v>1</v>
+      </c>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
-      <c r="Z13" s="40">
-        <v>1</v>
-      </c>
+      <c r="Z13" s="40"/>
       <c r="AA13" s="39"/>
       <c r="AB13" s="40"/>
       <c r="AC13" s="41"/>
@@ -3944,10 +3075,10 @@
       <c r="AV13" s="34"/>
       <c r="AW13" s="34"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
-      <c r="B14" s="42" t="s">
-        <v>9</v>
+      <c r="B14" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="35" t="s">
@@ -3974,13 +3105,13 @@
       <c r="W14" s="39"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
-      <c r="Z14" s="40"/>
+      <c r="Z14" s="40">
+        <v>1</v>
+      </c>
       <c r="AA14" s="39"/>
       <c r="AB14" s="40"/>
       <c r="AC14" s="41"/>
-      <c r="AD14" s="43">
-        <v>1</v>
-      </c>
+      <c r="AD14" s="41"/>
       <c r="AE14" s="41"/>
       <c r="AF14" s="40"/>
       <c r="AG14" s="34"/>
@@ -4001,10 +3132,10 @@
       <c r="AV14" s="34"/>
       <c r="AW14" s="34"/>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="35" t="s">
@@ -4016,9 +3147,7 @@
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
-      <c r="K15" s="44">
-        <v>0.192</v>
-      </c>
+      <c r="K15" s="38"/>
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
       <c r="N15" s="39"/>
@@ -4037,7 +3166,9 @@
       <c r="AA15" s="39"/>
       <c r="AB15" s="40"/>
       <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
+      <c r="AD15" s="43">
+        <v>1</v>
+      </c>
       <c r="AE15" s="41"/>
       <c r="AF15" s="40"/>
       <c r="AG15" s="34"/>
@@ -4058,10 +3189,10 @@
       <c r="AV15" s="34"/>
       <c r="AW15" s="34"/>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
-      <c r="B16" s="45" t="s">
-        <v>11</v>
+      <c r="B16" s="42" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="35" t="s">
@@ -4073,13 +3204,13 @@
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="K16" s="44">
+        <v>0.192</v>
+      </c>
       <c r="L16" s="39"/>
       <c r="M16" s="39"/>
       <c r="N16" s="39"/>
-      <c r="O16" s="39">
-        <v>1</v>
-      </c>
+      <c r="O16" s="39"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="39"/>
@@ -4115,14 +3246,12 @@
       <c r="AV16" s="34"/>
       <c r="AW16" s="34"/>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C17" s="18"/>
       <c r="D17" s="35" t="s">
         <v>32</v>
       </c>
@@ -4132,13 +3261,13 @@
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="39"/>
-      <c r="M17" s="39">
-        <v>5.2299999999999999E-2</v>
-      </c>
+      <c r="M17" s="39"/>
       <c r="N17" s="39"/>
-      <c r="O17" s="38"/>
+      <c r="O17" s="39">
+        <v>1</v>
+      </c>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
       <c r="R17" s="39"/>
@@ -4147,7 +3276,7 @@
       <c r="U17" s="39"/>
       <c r="V17" s="39"/>
       <c r="W17" s="39"/>
-      <c r="X17" s="38"/>
+      <c r="X17" s="39"/>
       <c r="Y17" s="39"/>
       <c r="Z17" s="40"/>
       <c r="AA17" s="39"/>
@@ -4161,7 +3290,7 @@
       <c r="AI17" s="34"/>
       <c r="AJ17" s="34"/>
       <c r="AK17" s="34"/>
-      <c r="AL17" s="46"/>
+      <c r="AL17" s="34"/>
       <c r="AM17" s="34"/>
       <c r="AN17" s="34"/>
       <c r="AO17" s="34"/>
@@ -4174,12 +3303,14 @@
       <c r="AV17" s="34"/>
       <c r="AW17" s="34"/>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="D18" s="35" t="s">
         <v>32</v>
       </c>
@@ -4190,15 +3321,13 @@
       <c r="I18" s="37"/>
       <c r="J18" s="38"/>
       <c r="K18" s="39"/>
-      <c r="L18" s="39">
-        <v>-0.98328416912487704</v>
-      </c>
-      <c r="M18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39">
+        <v>5.2299999999999999E-2</v>
+      </c>
       <c r="N18" s="39"/>
       <c r="O18" s="38"/>
-      <c r="P18" s="39">
-        <v>-0.95265313899209292</v>
-      </c>
+      <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
@@ -4219,24 +3348,24 @@
       <c r="AH18" s="34"/>
       <c r="AI18" s="34"/>
       <c r="AJ18" s="34"/>
-      <c r="AK18" s="46"/>
+      <c r="AK18" s="34"/>
       <c r="AL18" s="46"/>
-      <c r="AM18" s="46"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="46"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
       <c r="AQ18" s="34"/>
       <c r="AR18" s="34"/>
       <c r="AS18" s="34"/>
-      <c r="AT18" s="46"/>
-      <c r="AU18" s="46"/>
-      <c r="AV18" s="46"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="34"/>
       <c r="AW18" s="34"/>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="35" t="s">
@@ -4249,13 +3378,15 @@
       <c r="I19" s="37"/>
       <c r="J19" s="38"/>
       <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
+      <c r="L19" s="39">
+        <v>-0.98328416912487704</v>
+      </c>
       <c r="M19" s="39"/>
-      <c r="N19" s="39">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="39">
+        <v>-0.95265313899209292</v>
+      </c>
       <c r="Q19" s="39"/>
       <c r="R19" s="39"/>
       <c r="S19" s="39"/>
@@ -4263,7 +3394,7 @@
       <c r="U19" s="39"/>
       <c r="V19" s="39"/>
       <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
+      <c r="X19" s="38"/>
       <c r="Y19" s="39"/>
       <c r="Z19" s="40"/>
       <c r="AA19" s="39"/>
@@ -4276,24 +3407,24 @@
       <c r="AH19" s="34"/>
       <c r="AI19" s="34"/>
       <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="46"/>
+      <c r="AP19" s="46"/>
       <c r="AQ19" s="34"/>
       <c r="AR19" s="34"/>
       <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="34"/>
+      <c r="AT19" s="46"/>
+      <c r="AU19" s="46"/>
+      <c r="AV19" s="46"/>
       <c r="AW19" s="34"/>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
       <c r="B20" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="35" t="s">
@@ -4307,10 +3438,10 @@
       <c r="J20" s="38"/>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
-      <c r="M20" s="39">
-        <v>0.22</v>
-      </c>
-      <c r="N20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39">
+        <v>0.44900000000000001</v>
+      </c>
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
@@ -4347,10 +3478,10 @@
       <c r="AV20" s="34"/>
       <c r="AW20" s="34"/>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="35" t="s">
@@ -4365,9 +3496,9 @@
       <c r="K21" s="39"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39">
-        <v>0.7</v>
-      </c>
-      <c r="N21" s="47"/>
+        <v>0.22</v>
+      </c>
+      <c r="N21" s="39"/>
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
@@ -4404,14 +3535,12 @@
       <c r="AV21" s="34"/>
       <c r="AW21" s="34"/>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C22" s="18"/>
       <c r="D22" s="35" t="s">
         <v>32</v>
       </c>
@@ -4420,13 +3549,13 @@
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
-      <c r="J22" s="48"/>
+      <c r="J22" s="38"/>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39">
-        <v>0.52100000000000002</v>
-      </c>
+      <c r="M22" s="39">
+        <v>0.7</v>
+      </c>
+      <c r="N22" s="47"/>
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
@@ -4463,10 +3592,10 @@
       <c r="AV22" s="34"/>
       <c r="AW22" s="34"/>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
-      <c r="B23" s="42" t="s">
-        <v>18</v>
+      <c r="B23" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>1</v>
@@ -4482,23 +3611,23 @@
       <c r="J23" s="48"/>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39">
+        <v>0.52100000000000002</v>
+      </c>
       <c r="O23" s="39"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="39"/>
       <c r="R23" s="39"/>
       <c r="S23" s="39"/>
       <c r="T23" s="39"/>
-      <c r="U23" s="39">
-        <v>1</v>
-      </c>
+      <c r="U23" s="39"/>
       <c r="V23" s="39"/>
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
       <c r="Y23" s="39"/>
       <c r="Z23" s="40"/>
-      <c r="AA23" s="49"/>
+      <c r="AA23" s="39"/>
       <c r="AB23" s="40"/>
       <c r="AC23" s="41"/>
       <c r="AD23" s="41"/>
@@ -4522,10 +3651,10 @@
       <c r="AV23" s="34"/>
       <c r="AW23" s="34"/>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
       <c r="B24" s="42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>1</v>
@@ -4549,7 +3678,9 @@
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
       <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
+      <c r="U24" s="39">
+        <v>1</v>
+      </c>
       <c r="V24" s="39"/>
       <c r="W24" s="39"/>
       <c r="X24" s="39"/>
@@ -4566,23 +3697,23 @@
       <c r="AI24" s="34"/>
       <c r="AJ24" s="34"/>
       <c r="AK24" s="34"/>
-      <c r="AL24" s="46"/>
-      <c r="AM24" s="46"/>
-      <c r="AN24" s="46"/>
-      <c r="AO24" s="46"/>
-      <c r="AP24" s="46"/>
+      <c r="AL24" s="34"/>
+      <c r="AM24" s="34"/>
+      <c r="AN24" s="34"/>
+      <c r="AO24" s="34"/>
+      <c r="AP24" s="34"/>
       <c r="AQ24" s="34"/>
       <c r="AR24" s="34"/>
       <c r="AS24" s="34"/>
       <c r="AT24" s="34"/>
-      <c r="AU24" s="46"/>
-      <c r="AV24" s="46"/>
+      <c r="AU24" s="34"/>
+      <c r="AV24" s="34"/>
       <c r="AW24" s="34"/>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>1</v>
@@ -4598,16 +3729,14 @@
       <c r="J25" s="48"/>
       <c r="K25" s="39"/>
       <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="39"/>
       <c r="O25" s="39"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
       <c r="S25" s="39"/>
-      <c r="T25" s="39">
-        <v>0.56399999999999995</v>
-      </c>
+      <c r="T25" s="39"/>
       <c r="U25" s="39"/>
       <c r="V25" s="39"/>
       <c r="W25" s="39"/>
@@ -4625,23 +3754,23 @@
       <c r="AI25" s="34"/>
       <c r="AJ25" s="34"/>
       <c r="AK25" s="34"/>
-      <c r="AL25" s="34"/>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
+      <c r="AL25" s="46"/>
+      <c r="AM25" s="46"/>
+      <c r="AN25" s="46"/>
+      <c r="AO25" s="46"/>
+      <c r="AP25" s="46"/>
       <c r="AQ25" s="34"/>
       <c r="AR25" s="34"/>
       <c r="AS25" s="34"/>
       <c r="AT25" s="34"/>
-      <c r="AU25" s="34"/>
-      <c r="AV25" s="34"/>
+      <c r="AU25" s="46"/>
+      <c r="AV25" s="46"/>
       <c r="AW25" s="34"/>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
-      <c r="B26" s="45" t="s">
-        <v>21</v>
+      <c r="B26" s="42" t="s">
+        <v>20</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>1</v>
@@ -4657,20 +3786,20 @@
       <c r="J26" s="48"/>
       <c r="K26" s="39"/>
       <c r="L26" s="39"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="44"/>
       <c r="O26" s="39"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="39"/>
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
+      <c r="T26" s="39">
+        <v>0.56399999999999995</v>
+      </c>
       <c r="U26" s="39"/>
       <c r="V26" s="39"/>
       <c r="W26" s="39"/>
-      <c r="X26" s="39">
-        <v>1</v>
-      </c>
+      <c r="X26" s="39"/>
       <c r="Y26" s="39"/>
       <c r="Z26" s="40"/>
       <c r="AA26" s="49"/>
@@ -4697,10 +3826,10 @@
       <c r="AV26" s="34"/>
       <c r="AW26" s="34"/>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>1</v>
@@ -4727,7 +3856,9 @@
       <c r="U27" s="39"/>
       <c r="V27" s="39"/>
       <c r="W27" s="39"/>
-      <c r="X27" s="49"/>
+      <c r="X27" s="39">
+        <v>1</v>
+      </c>
       <c r="Y27" s="39"/>
       <c r="Z27" s="40"/>
       <c r="AA27" s="49"/>
@@ -4741,23 +3872,23 @@
       <c r="AI27" s="34"/>
       <c r="AJ27" s="34"/>
       <c r="AK27" s="34"/>
-      <c r="AL27" s="46"/>
-      <c r="AM27" s="46"/>
-      <c r="AN27" s="46"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="34"/>
       <c r="AO27" s="34"/>
-      <c r="AP27" s="46"/>
+      <c r="AP27" s="34"/>
       <c r="AQ27" s="34"/>
       <c r="AR27" s="34"/>
       <c r="AS27" s="34"/>
-      <c r="AT27" s="46"/>
-      <c r="AU27" s="46"/>
-      <c r="AV27" s="46"/>
+      <c r="AT27" s="34"/>
+      <c r="AU27" s="34"/>
+      <c r="AV27" s="34"/>
       <c r="AW27" s="34"/>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>1</v>
@@ -4773,8 +3904,8 @@
       <c r="J28" s="48"/>
       <c r="K28" s="39"/>
       <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="39"/>
       <c r="O28" s="39"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
@@ -4783,9 +3914,7 @@
       <c r="T28" s="39"/>
       <c r="U28" s="39"/>
       <c r="V28" s="39"/>
-      <c r="W28" s="39">
-        <v>0.71513755015167824</v>
-      </c>
+      <c r="W28" s="39"/>
       <c r="X28" s="49"/>
       <c r="Y28" s="39"/>
       <c r="Z28" s="40"/>
@@ -4800,23 +3929,23 @@
       <c r="AI28" s="34"/>
       <c r="AJ28" s="34"/>
       <c r="AK28" s="34"/>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="34"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="46"/>
+      <c r="AN28" s="46"/>
       <c r="AO28" s="34"/>
-      <c r="AP28" s="34"/>
+      <c r="AP28" s="46"/>
       <c r="AQ28" s="34"/>
       <c r="AR28" s="34"/>
       <c r="AS28" s="34"/>
-      <c r="AT28" s="34"/>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="34"/>
+      <c r="AT28" s="46"/>
+      <c r="AU28" s="46"/>
+      <c r="AV28" s="46"/>
       <c r="AW28" s="34"/>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
-      <c r="B29" s="42" t="s">
-        <v>24</v>
+      <c r="B29" s="45" t="s">
+        <v>23</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>1</v>
@@ -4833,7 +3962,7 @@
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
       <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
+      <c r="N29" s="44"/>
       <c r="O29" s="39"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
@@ -4842,13 +3971,13 @@
       <c r="T29" s="39"/>
       <c r="U29" s="39"/>
       <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
+      <c r="W29" s="39">
+        <v>0.71513755015167824</v>
+      </c>
       <c r="X29" s="49"/>
       <c r="Y29" s="39"/>
       <c r="Z29" s="40"/>
-      <c r="AA29" s="39">
-        <v>1</v>
-      </c>
+      <c r="AA29" s="49"/>
       <c r="AB29" s="40"/>
       <c r="AC29" s="41"/>
       <c r="AD29" s="41"/>
@@ -4872,10 +4001,10 @@
       <c r="AV29" s="34"/>
       <c r="AW29" s="34"/>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="B30" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>1</v>
@@ -4905,7 +4034,9 @@
       <c r="X30" s="49"/>
       <c r="Y30" s="39"/>
       <c r="Z30" s="40"/>
-      <c r="AA30" s="49"/>
+      <c r="AA30" s="39">
+        <v>1</v>
+      </c>
       <c r="AB30" s="40"/>
       <c r="AC30" s="41"/>
       <c r="AD30" s="41"/>
@@ -4916,25 +4047,27 @@
       <c r="AI30" s="34"/>
       <c r="AJ30" s="34"/>
       <c r="AK30" s="34"/>
-      <c r="AL30" s="46"/>
-      <c r="AM30" s="46"/>
-      <c r="AN30" s="46"/>
-      <c r="AO30" s="46"/>
+      <c r="AL30" s="34"/>
+      <c r="AM30" s="34"/>
+      <c r="AN30" s="34"/>
+      <c r="AO30" s="34"/>
       <c r="AP30" s="34"/>
       <c r="AQ30" s="34"/>
       <c r="AR30" s="34"/>
       <c r="AS30" s="34"/>
-      <c r="AT30" s="46"/>
-      <c r="AU30" s="46"/>
+      <c r="AT30" s="34"/>
+      <c r="AU30" s="34"/>
       <c r="AV30" s="34"/>
       <c r="AW30" s="34"/>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="D31" s="35" t="s">
         <v>32</v>
       </c>
@@ -4944,7 +4077,7 @@
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
       <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
+      <c r="K31" s="39"/>
       <c r="L31" s="39"/>
       <c r="M31" s="39"/>
       <c r="N31" s="39"/>
@@ -4957,12 +4090,10 @@
       <c r="U31" s="39"/>
       <c r="V31" s="39"/>
       <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
+      <c r="X31" s="49"/>
       <c r="Y31" s="39"/>
-      <c r="Z31" s="50">
-        <v>0.54428331668907581</v>
-      </c>
-      <c r="AA31" s="39"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="49"/>
       <c r="AB31" s="40"/>
       <c r="AC31" s="41"/>
       <c r="AD31" s="41"/>
@@ -4973,69 +4104,57 @@
       <c r="AI31" s="34"/>
       <c r="AJ31" s="34"/>
       <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
-      <c r="AM31" s="34"/>
-      <c r="AN31" s="34"/>
-      <c r="AO31" s="34"/>
+      <c r="AL31" s="46"/>
+      <c r="AM31" s="46"/>
+      <c r="AN31" s="46"/>
+      <c r="AO31" s="46"/>
       <c r="AP31" s="34"/>
       <c r="AQ31" s="34"/>
       <c r="AR31" s="34"/>
       <c r="AS31" s="34"/>
-      <c r="AT31" s="34"/>
-      <c r="AU31" s="34"/>
+      <c r="AT31" s="46"/>
+      <c r="AU31" s="46"/>
       <c r="AV31" s="34"/>
       <c r="AW31" s="34"/>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
-      <c r="B32" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="18" t="s">
+      <c r="B32" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="35" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="36"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39">
-        <v>1.1799410029498525E-2</v>
-      </c>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="39"/>
       <c r="M32" s="39"/>
       <c r="N32" s="39"/>
-      <c r="O32" s="39">
-        <v>4.5917881299418879E-2</v>
-      </c>
-      <c r="P32" s="39">
-        <v>4.5917881299418879E-2</v>
-      </c>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
       <c r="Q32" s="39"/>
       <c r="R32" s="39"/>
-      <c r="S32" s="44"/>
+      <c r="S32" s="39"/>
       <c r="T32" s="39"/>
-      <c r="U32" s="39">
-        <v>1.1799410029498525E-2</v>
-      </c>
+      <c r="U32" s="39"/>
       <c r="V32" s="39"/>
       <c r="W32" s="39"/>
-      <c r="X32" s="39">
-        <v>1.1799410029498525E-2</v>
-      </c>
+      <c r="X32" s="39"/>
       <c r="Y32" s="39"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="39">
-        <v>1.1799410029498525E-2</v>
-      </c>
+      <c r="Z32" s="50">
+        <v>0.54428331668907581</v>
+      </c>
+      <c r="AA32" s="39"/>
       <c r="AB32" s="40"/>
       <c r="AC32" s="41"/>
       <c r="AD32" s="41"/>
-      <c r="AE32" s="52"/>
+      <c r="AE32" s="41"/>
       <c r="AF32" s="40"/>
       <c r="AG32" s="34"/>
       <c r="AH32" s="34"/>
@@ -5055,10 +4174,10 @@
       <c r="AV32" s="34"/>
       <c r="AW32" s="34"/>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>1</v>
@@ -5073,36 +4192,38 @@
       <c r="I33" s="39"/>
       <c r="J33" s="38"/>
       <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
+      <c r="L33" s="39">
+        <v>1.1799410029498525E-2</v>
+      </c>
       <c r="M33" s="39"/>
       <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
+      <c r="O33" s="39">
+        <v>4.5917881299418879E-2</v>
+      </c>
+      <c r="P33" s="39">
+        <v>4.5917881299418879E-2</v>
+      </c>
       <c r="Q33" s="39"/>
       <c r="R33" s="39"/>
-      <c r="S33" s="44">
-        <v>-0.15402000000000002</v>
-      </c>
+      <c r="S33" s="44"/>
       <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39">
-        <v>-0.31114999999999998</v>
-      </c>
+      <c r="U33" s="39">
+        <v>1.1799410029498525E-2</v>
+      </c>
+      <c r="V33" s="39"/>
       <c r="W33" s="39"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="39">
-        <v>-0.37113000000000002</v>
-      </c>
+      <c r="X33" s="39">
+        <v>1.1799410029498525E-2</v>
+      </c>
+      <c r="Y33" s="39"/>
       <c r="Z33" s="40"/>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="40">
-        <v>-0.45390000000000003</v>
-      </c>
+      <c r="AA33" s="39">
+        <v>1.1799410029498525E-2</v>
+      </c>
+      <c r="AB33" s="40"/>
       <c r="AC33" s="41"/>
       <c r="AD33" s="41"/>
-      <c r="AE33" s="52">
-        <v>-9.1799999999999993E-2</v>
-      </c>
+      <c r="AE33" s="52"/>
       <c r="AF33" s="40"/>
       <c r="AG33" s="34"/>
       <c r="AH33" s="34"/>
@@ -5122,57 +4243,55 @@
       <c r="AV33" s="34"/>
       <c r="AW33" s="34"/>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="56" t="s">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="59">
-        <v>-5.8804835999999998</v>
-      </c>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59">
-        <v>-8.2728561999999997</v>
-      </c>
-      <c r="W34" s="59"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="59">
-        <v>-7.4469859999999999</v>
-      </c>
-      <c r="Z34" s="61"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="61">
-        <v>-8.1429659999999995</v>
-      </c>
-      <c r="AC34" s="63">
-        <v>-18.038394000000004</v>
-      </c>
-      <c r="AD34" s="63">
-        <v>-9.5685520000000004</v>
-      </c>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="61"/>
+      <c r="D34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="44">
+        <v>-0.15402000000000002</v>
+      </c>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39">
+        <v>-0.31114999999999998</v>
+      </c>
+      <c r="W34" s="39"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="39">
+        <v>-0.37113000000000002</v>
+      </c>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="40">
+        <v>-0.45390000000000003</v>
+      </c>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="41"/>
+      <c r="AE34" s="52">
+        <v>-9.1799999999999993E-2</v>
+      </c>
+      <c r="AF34" s="40"/>
       <c r="AG34" s="34"/>
       <c r="AH34" s="34"/>
       <c r="AI34" s="34"/>
@@ -5191,45 +4310,57 @@
       <c r="AV34" s="34"/>
       <c r="AW34" s="34"/>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="40">
-        <v>5.0132999999999997E-2</v>
-      </c>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="40"/>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A35" s="54"/>
+      <c r="B35" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="59">
+        <v>-5.8804835999999998</v>
+      </c>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59">
+        <v>-8.2728561999999997</v>
+      </c>
+      <c r="W35" s="59"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="59">
+        <v>-7.4469859999999999</v>
+      </c>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="61">
+        <v>-8.1429659999999995</v>
+      </c>
+      <c r="AC35" s="63">
+        <v>-18.038394000000004</v>
+      </c>
+      <c r="AD35" s="63">
+        <v>-9.5685520000000004</v>
+      </c>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="61"/>
       <c r="AG35" s="34"/>
       <c r="AH35" s="34"/>
       <c r="AI35" s="34"/>
@@ -5248,141 +4379,150 @@
       <c r="AV35" s="34"/>
       <c r="AW35" s="34"/>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="93">
-        <v>0.89</v>
-      </c>
-      <c r="F36" s="93">
-        <v>1.5078673248896612</v>
-      </c>
-      <c r="G36" s="93">
-        <v>1.8565921101087275</v>
-      </c>
-      <c r="H36" s="93">
-        <v>1.0815483091260956</v>
-      </c>
-      <c r="I36" s="93">
-        <v>0.98165159273580627</v>
-      </c>
-      <c r="J36" s="93">
-        <v>1.9673463306620951</v>
-      </c>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="66"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-    </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A36" s="25"/>
+      <c r="B36" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="40">
+        <v>5.0132999999999997E-2</v>
+      </c>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="41"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="40"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="34"/>
+      <c r="AI36" s="34"/>
+      <c r="AJ36" s="34"/>
+      <c r="AK36" s="34"/>
+      <c r="AL36" s="34"/>
+      <c r="AM36" s="34"/>
+      <c r="AN36" s="34"/>
+      <c r="AO36" s="34"/>
+      <c r="AP36" s="34"/>
+      <c r="AQ36" s="34"/>
+      <c r="AR36" s="34"/>
+      <c r="AS36" s="34"/>
+      <c r="AT36" s="34"/>
+      <c r="AU36" s="34"/>
+      <c r="AV36" s="34"/>
+      <c r="AW36" s="34"/>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
       <c r="B37" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="66">
-        <v>17.432678821879385</v>
-      </c>
-      <c r="K37" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="L37" s="68">
-        <v>0.20271386430678465</v>
-      </c>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="AB37" s="69"/>
-      <c r="AC37" s="69"/>
+        <v>126</v>
+      </c>
+      <c r="E37" s="93">
+        <v>0.89</v>
+      </c>
+      <c r="F37" s="93">
+        <v>1.5078673248896612</v>
+      </c>
+      <c r="G37" s="93">
+        <v>1.8565921101087275</v>
+      </c>
+      <c r="H37" s="93">
+        <v>1.0815483091260956</v>
+      </c>
+      <c r="I37" s="93">
+        <v>0.98165159273580627</v>
+      </c>
+      <c r="J37" s="93">
+        <v>1.9673463306620951</v>
+      </c>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="66"/>
+      <c r="AC37" s="66"/>
       <c r="AD37" s="66"/>
       <c r="AE37" s="66"/>
-      <c r="AF37" s="69"/>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AF37" s="66"/>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A38" s="65"/>
       <c r="B38" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="D38" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66">
-        <v>198.63565632225058</v>
-      </c>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="70">
+      <c r="F38" s="66">
+        <v>17.432678821879385</v>
+      </c>
+      <c r="K38" s="67">
         <v>0.2</v>
       </c>
-      <c r="N38" s="69">
-        <v>0.2</v>
-      </c>
-      <c r="O38" s="70">
-        <v>0.2043250452510241</v>
-      </c>
-      <c r="P38" s="70">
-        <v>0.2043250452510241</v>
+      <c r="L38" s="68">
+        <v>0.20271386430678465</v>
       </c>
       <c r="Q38" s="69"/>
       <c r="R38" s="69"/>
       <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
       <c r="V38" s="69"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="69"/>
       <c r="Y38" s="69"/>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="69"/>
       <c r="AB38" s="69"/>
       <c r="AC38" s="69"/>
       <c r="AD38" s="66"/>
       <c r="AE38" s="66"/>
       <c r="AF38" s="69"/>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A39" s="65"/>
       <c r="B39" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18" t="s">
@@ -5390,27 +4530,31 @@
       </c>
       <c r="E39" s="66"/>
       <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66">
-        <v>162.06267465901416</v>
-      </c>
+      <c r="G39" s="66">
+        <v>198.63565632225058</v>
+      </c>
+      <c r="H39" s="66"/>
       <c r="I39" s="66"/>
       <c r="J39" s="66"/>
       <c r="K39" s="67"/>
       <c r="L39" s="68"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="70"/>
+      <c r="M39" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="N39" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="O39" s="70">
+        <v>0.2043250452510241</v>
+      </c>
+      <c r="P39" s="70">
+        <v>0.2043250452510241</v>
+      </c>
       <c r="Q39" s="69"/>
       <c r="R39" s="69"/>
       <c r="S39" s="69"/>
-      <c r="T39" s="69">
-        <v>0.2</v>
-      </c>
-      <c r="U39" s="69">
-        <v>0.20271386430678465</v>
-      </c>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
       <c r="V39" s="69"/>
       <c r="W39" s="69"/>
       <c r="X39" s="69"/>
@@ -5423,10 +4567,10 @@
       <c r="AE39" s="66"/>
       <c r="AF39" s="69"/>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A40" s="65"/>
       <c r="B40" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18" t="s">
@@ -5435,11 +4579,11 @@
       <c r="E40" s="66"/>
       <c r="F40" s="66"/>
       <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
+      <c r="H40" s="66">
+        <v>162.06267465901416</v>
+      </c>
       <c r="I40" s="66"/>
-      <c r="J40" s="66">
-        <v>63.314665317229142</v>
-      </c>
+      <c r="J40" s="66"/>
       <c r="K40" s="67"/>
       <c r="L40" s="68"/>
       <c r="M40" s="70"/>
@@ -5449,43 +4593,41 @@
       <c r="Q40" s="69"/>
       <c r="R40" s="69"/>
       <c r="S40" s="69"/>
-      <c r="T40" s="69"/>
-      <c r="U40" s="69"/>
+      <c r="T40" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="U40" s="69">
+        <v>0.20271386430678465</v>
+      </c>
       <c r="V40" s="69"/>
       <c r="W40" s="69"/>
       <c r="X40" s="69"/>
       <c r="Y40" s="69"/>
-      <c r="Z40" s="69">
-        <v>0.2</v>
-      </c>
-      <c r="AA40" s="69">
-        <v>0.2</v>
-      </c>
+      <c r="Z40" s="69"/>
+      <c r="AA40" s="69"/>
       <c r="AB40" s="69"/>
       <c r="AC40" s="69"/>
       <c r="AD40" s="66"/>
       <c r="AE40" s="66"/>
       <c r="AF40" s="69"/>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A41" s="65"/>
       <c r="B41" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="66">
-        <v>119.17193191325892</v>
-      </c>
+      <c r="E41" s="66"/>
       <c r="F41" s="66"/>
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
-      <c r="I41" s="66">
-        <v>82.184012137662819</v>
-      </c>
-      <c r="J41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66">
+        <v>63.314665317229142</v>
+      </c>
       <c r="K41" s="67"/>
       <c r="L41" s="68"/>
       <c r="M41" s="70"/>
@@ -5498,47 +4640,58 @@
       <c r="T41" s="69"/>
       <c r="U41" s="69"/>
       <c r="V41" s="69"/>
-      <c r="W41" s="69">
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="69">
         <v>0.2</v>
       </c>
-      <c r="X41" s="69">
+      <c r="AA41" s="69">
         <v>0.2</v>
       </c>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="69"/>
       <c r="AB41" s="69"/>
       <c r="AC41" s="69"/>
       <c r="AD41" s="66"/>
       <c r="AE41" s="66"/>
       <c r="AF41" s="69"/>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A42" s="65"/>
       <c r="B42" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C42" s="18"/>
       <c r="D42" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="71">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E42" s="66">
+        <v>119.17193191325892</v>
+      </c>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66">
+        <v>82.184012137662819</v>
+      </c>
+      <c r="J42" s="66"/>
       <c r="K42" s="67"/>
       <c r="L42" s="68"/>
       <c r="M42" s="70"/>
       <c r="N42" s="69"/>
       <c r="O42" s="70"/>
       <c r="P42" s="70"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
       <c r="S42" s="69"/>
       <c r="T42" s="69"/>
       <c r="U42" s="69"/>
       <c r="V42" s="69"/>
-      <c r="W42" s="69"/>
-      <c r="X42" s="69"/>
+      <c r="W42" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="X42" s="69">
+        <v>0.2</v>
+      </c>
       <c r="Y42" s="69"/>
       <c r="Z42" s="69"/>
       <c r="AA42" s="69"/>
@@ -5548,31 +4701,26 @@
       <c r="AE42" s="66"/>
       <c r="AF42" s="69"/>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A43" s="65"/>
       <c r="B43" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="D43" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66">
-        <v>45.261336515513129</v>
-      </c>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
+      <c r="F43" s="71">
+        <v>0</v>
+      </c>
       <c r="K43" s="67"/>
       <c r="L43" s="68"/>
       <c r="M43" s="70"/>
       <c r="N43" s="69"/>
       <c r="O43" s="70"/>
       <c r="P43" s="70"/>
-      <c r="Q43" s="69"/>
-      <c r="R43" s="69"/>
       <c r="S43" s="69"/>
       <c r="T43" s="69"/>
       <c r="U43" s="69"/>
@@ -5588,10 +4736,10 @@
       <c r="AE43" s="66"/>
       <c r="AF43" s="69"/>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A44" s="65"/>
       <c r="B44" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18" t="s">
@@ -5600,11 +4748,11 @@
       <c r="E44" s="66"/>
       <c r="F44" s="66"/>
       <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
+      <c r="H44" s="66">
+        <v>45.261336515513129</v>
+      </c>
       <c r="I44" s="66"/>
-      <c r="J44" s="66">
-        <v>0</v>
-      </c>
+      <c r="J44" s="66"/>
       <c r="K44" s="67"/>
       <c r="L44" s="68"/>
       <c r="M44" s="70"/>
@@ -5628,10 +4776,10 @@
       <c r="AE44" s="66"/>
       <c r="AF44" s="69"/>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A45" s="65"/>
       <c r="B45" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18" t="s">
@@ -5639,24 +4787,20 @@
       </c>
       <c r="E45" s="66"/>
       <c r="F45" s="66"/>
-      <c r="G45" s="66">
-        <v>151.03859925834362</v>
-      </c>
+      <c r="G45" s="66"/>
       <c r="H45" s="66"/>
       <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
+      <c r="J45" s="66">
+        <v>0</v>
+      </c>
       <c r="K45" s="67"/>
       <c r="L45" s="68"/>
       <c r="M45" s="70"/>
       <c r="N45" s="69"/>
       <c r="O45" s="70"/>
       <c r="P45" s="70"/>
-      <c r="Q45" s="69">
-        <v>-1.3200000000000015E-3</v>
-      </c>
-      <c r="R45" s="69">
-        <v>-9.4999999999999967E-4</v>
-      </c>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="69"/>
       <c r="S45" s="69"/>
       <c r="T45" s="69"/>
       <c r="U45" s="69"/>
@@ -5672,24 +4816,22 @@
       <c r="AE45" s="66"/>
       <c r="AF45" s="69"/>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A46" s="65"/>
       <c r="B46" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="66">
-        <v>8.7638625912902341</v>
-      </c>
+      <c r="E46" s="66"/>
       <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
+      <c r="G46" s="66">
+        <v>151.03859925834362</v>
+      </c>
       <c r="H46" s="66"/>
-      <c r="I46" s="66">
-        <v>8.7638625912902341</v>
-      </c>
+      <c r="I46" s="66"/>
       <c r="J46" s="66"/>
       <c r="K46" s="67"/>
       <c r="L46" s="68"/>
@@ -5697,8 +4839,12 @@
       <c r="N46" s="69"/>
       <c r="O46" s="70"/>
       <c r="P46" s="70"/>
-      <c r="Q46" s="69"/>
-      <c r="R46" s="69"/>
+      <c r="Q46" s="69">
+        <v>-1.3200000000000015E-3</v>
+      </c>
+      <c r="R46" s="69">
+        <v>-9.4999999999999967E-4</v>
+      </c>
       <c r="S46" s="69"/>
       <c r="T46" s="69"/>
       <c r="U46" s="69"/>
@@ -5714,20 +4860,25 @@
       <c r="AE46" s="66"/>
       <c r="AF46" s="69"/>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A47" s="65"/>
       <c r="B47" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C47" s="18"/>
       <c r="D47" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="66">
-        <v>0</v>
-      </c>
+      <c r="E47" s="66">
+        <v>8.7638625912902341</v>
+      </c>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66">
+        <v>8.7638625912902341</v>
+      </c>
+      <c r="J47" s="66"/>
       <c r="K47" s="67"/>
       <c r="L47" s="68"/>
       <c r="M47" s="70"/>
@@ -5751,23 +4902,20 @@
       <c r="AE47" s="66"/>
       <c r="AF47" s="69"/>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A48" s="65"/>
       <c r="B48" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="D48" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66">
-        <v>114.7878452096829</v>
-      </c>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
+      <c r="F48" s="66">
+        <v>0</v>
+      </c>
       <c r="K48" s="67"/>
       <c r="L48" s="68"/>
       <c r="M48" s="70"/>
@@ -5791,10 +4939,10 @@
       <c r="AE48" s="66"/>
       <c r="AF48" s="69"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" s="65"/>
       <c r="B49" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18" t="s">
@@ -5803,11 +4951,11 @@
       <c r="E49" s="66"/>
       <c r="F49" s="66"/>
       <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
+      <c r="H49" s="66">
+        <v>114.7878452096829</v>
+      </c>
       <c r="I49" s="66"/>
-      <c r="J49" s="66">
-        <v>0</v>
-      </c>
+      <c r="J49" s="66"/>
       <c r="K49" s="67"/>
       <c r="L49" s="68"/>
       <c r="M49" s="70"/>
@@ -5831,10 +4979,10 @@
       <c r="AE49" s="66"/>
       <c r="AF49" s="69"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" s="65"/>
       <c r="B50" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18" t="s">
@@ -5842,12 +4990,12 @@
       </c>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
-      <c r="G50" s="66">
-        <v>10.802760741656368</v>
-      </c>
+      <c r="G50" s="66"/>
       <c r="H50" s="66"/>
       <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
+      <c r="J50" s="66">
+        <v>0</v>
+      </c>
       <c r="K50" s="67"/>
       <c r="L50" s="68"/>
       <c r="M50" s="70"/>
@@ -5871,24 +5019,22 @@
       <c r="AE50" s="66"/>
       <c r="AF50" s="69"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" s="65"/>
       <c r="B51" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="66">
-        <v>49.499594265620779</v>
-      </c>
+      <c r="E51" s="66"/>
       <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
+      <c r="G51" s="66">
+        <v>10.802760741656368</v>
+      </c>
       <c r="H51" s="66"/>
-      <c r="I51" s="66">
-        <v>49.499594265620779</v>
-      </c>
+      <c r="I51" s="66"/>
       <c r="J51" s="66"/>
       <c r="K51" s="67"/>
       <c r="L51" s="68"/>
@@ -5913,20 +5059,25 @@
       <c r="AE51" s="66"/>
       <c r="AF51" s="69"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" s="65"/>
       <c r="B52" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C52" s="18"/>
       <c r="D52" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="66">
-        <v>0</v>
-      </c>
+      <c r="E52" s="66">
+        <v>49.499594265620779</v>
+      </c>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66">
+        <v>49.499594265620779</v>
+      </c>
+      <c r="J52" s="66"/>
       <c r="K52" s="67"/>
       <c r="L52" s="68"/>
       <c r="M52" s="70"/>
@@ -5950,23 +5101,20 @@
       <c r="AE52" s="66"/>
       <c r="AF52" s="69"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" s="65"/>
       <c r="B53" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="D53" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66">
-        <v>9.1508182748039548</v>
-      </c>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
+      <c r="F53" s="66">
+        <v>0</v>
+      </c>
       <c r="K53" s="67"/>
       <c r="L53" s="68"/>
       <c r="M53" s="70"/>
@@ -5990,10 +5138,10 @@
       <c r="AE53" s="66"/>
       <c r="AF53" s="69"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" s="65"/>
       <c r="B54" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="18" t="s">
@@ -6002,11 +5150,11 @@
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
+      <c r="H54" s="66">
+        <v>9.1508182748039548</v>
+      </c>
       <c r="I54" s="66"/>
-      <c r="J54" s="66">
-        <v>15</v>
-      </c>
+      <c r="J54" s="66"/>
       <c r="K54" s="67"/>
       <c r="L54" s="68"/>
       <c r="M54" s="70"/>
@@ -6030,10 +5178,10 @@
       <c r="AE54" s="66"/>
       <c r="AF54" s="69"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" s="65"/>
       <c r="B55" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18" t="s">
@@ -6041,12 +5189,12 @@
       </c>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
-      <c r="G55" s="66">
-        <v>0</v>
-      </c>
+      <c r="G55" s="66"/>
       <c r="H55" s="66"/>
       <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
+      <c r="J55" s="66">
+        <v>15</v>
+      </c>
       <c r="K55" s="67"/>
       <c r="L55" s="68"/>
       <c r="M55" s="70"/>
@@ -6070,24 +5218,22 @@
       <c r="AE55" s="66"/>
       <c r="AF55" s="69"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" s="65"/>
       <c r="B56" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="66">
-        <v>1.736543143088991</v>
-      </c>
+      <c r="E56" s="66"/>
       <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
+      <c r="G56" s="66">
+        <v>0</v>
+      </c>
       <c r="H56" s="66"/>
-      <c r="I56" s="66">
-        <v>1.736543143088991</v>
-      </c>
+      <c r="I56" s="66"/>
       <c r="J56" s="66"/>
       <c r="K56" s="67"/>
       <c r="L56" s="68"/>
@@ -6112,24 +5258,24 @@
       <c r="AE56" s="66"/>
       <c r="AF56" s="69"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" s="65"/>
       <c r="B57" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C57" s="18"/>
       <c r="D57" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="66"/>
+      <c r="E57" s="66">
+        <v>1.736543143088991</v>
+      </c>
       <c r="F57" s="66"/>
-      <c r="G57" s="66">
-        <v>35.665574030960165</v>
-      </c>
+      <c r="G57" s="66"/>
       <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
+      <c r="I57" s="66">
+        <v>1.736543143088991</v>
+      </c>
       <c r="J57" s="66"/>
       <c r="K57" s="67"/>
       <c r="L57" s="68"/>
@@ -6137,12 +5283,8 @@
       <c r="N57" s="69"/>
       <c r="O57" s="70"/>
       <c r="P57" s="70"/>
-      <c r="Q57" s="69">
-        <v>-3.6278709677419401E-4</v>
-      </c>
-      <c r="R57" s="69">
-        <v>-3.4354838709677401E-4</v>
-      </c>
+      <c r="Q57" s="69"/>
+      <c r="R57" s="69"/>
       <c r="S57" s="69"/>
       <c r="T57" s="69"/>
       <c r="U57" s="69"/>
@@ -6158,10 +5300,10 @@
       <c r="AE57" s="66"/>
       <c r="AF57" s="69"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" s="65"/>
       <c r="B58" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>1</v>
@@ -6169,18 +5311,26 @@
       <c r="D58" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F58" s="66">
-        <v>16</v>
-      </c>
-      <c r="G58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66">
+        <v>35.665574030960165</v>
+      </c>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
       <c r="K58" s="67"/>
       <c r="L58" s="68"/>
       <c r="M58" s="70"/>
       <c r="N58" s="69"/>
       <c r="O58" s="70"/>
       <c r="P58" s="70"/>
-      <c r="Q58" s="69"/>
-      <c r="R58" s="69"/>
+      <c r="Q58" s="69">
+        <v>-3.6278709677419401E-4</v>
+      </c>
+      <c r="R58" s="69">
+        <v>-3.4354838709677401E-4</v>
+      </c>
       <c r="S58" s="69"/>
       <c r="T58" s="69"/>
       <c r="U58" s="69"/>
@@ -6196,23 +5346,21 @@
       <c r="AE58" s="66"/>
       <c r="AF58" s="69"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" s="65"/>
       <c r="B59" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="D59" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
+      <c r="F59" s="66">
+        <v>16</v>
+      </c>
       <c r="G59" s="66"/>
-      <c r="H59" s="66">
-        <v>24</v>
-      </c>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
       <c r="K59" s="67"/>
       <c r="L59" s="68"/>
       <c r="M59" s="70"/>
@@ -6236,10 +5384,10 @@
       <c r="AE59" s="66"/>
       <c r="AF59" s="69"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" s="65"/>
       <c r="B60" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="18" t="s">
@@ -6248,11 +5396,11 @@
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
       <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
+      <c r="H60" s="66">
+        <v>24</v>
+      </c>
       <c r="I60" s="66"/>
-      <c r="J60" s="66">
-        <v>37.5</v>
-      </c>
+      <c r="J60" s="66"/>
       <c r="K60" s="67"/>
       <c r="L60" s="68"/>
       <c r="M60" s="70"/>
@@ -6276,10 +5424,10 @@
       <c r="AE60" s="66"/>
       <c r="AF60" s="69"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" s="65"/>
       <c r="B61" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18" t="s">
@@ -6290,7 +5438,9 @@
       <c r="G61" s="66"/>
       <c r="H61" s="66"/>
       <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
+      <c r="J61" s="66">
+        <v>37.5</v>
+      </c>
       <c r="K61" s="67"/>
       <c r="L61" s="68"/>
       <c r="M61" s="70"/>
@@ -6314,24 +5464,20 @@
       <c r="AE61" s="66"/>
       <c r="AF61" s="69"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" s="65"/>
       <c r="B62" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="66">
-        <v>60</v>
-      </c>
+      <c r="E62" s="66"/>
       <c r="F62" s="66"/>
       <c r="G62" s="66"/>
       <c r="H62" s="66"/>
-      <c r="I62" s="66">
-        <v>23</v>
-      </c>
+      <c r="I62" s="66"/>
       <c r="J62" s="66"/>
       <c r="K62" s="67"/>
       <c r="L62" s="68"/>
@@ -6356,26 +5502,33 @@
       <c r="AE62" s="66"/>
       <c r="AF62" s="69"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" s="65"/>
       <c r="B63" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C63" s="18"/>
       <c r="D63" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F63" s="66">
-        <v>0</v>
-      </c>
+      <c r="E63" s="66">
+        <v>60</v>
+      </c>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66">
+        <v>23</v>
+      </c>
+      <c r="J63" s="66"/>
       <c r="K63" s="67"/>
       <c r="L63" s="68"/>
       <c r="M63" s="70"/>
       <c r="N63" s="69"/>
       <c r="O63" s="70"/>
       <c r="P63" s="70"/>
+      <c r="Q63" s="69"/>
+      <c r="R63" s="69"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
       <c r="U63" s="69"/>
@@ -6391,31 +5544,26 @@
       <c r="AE63" s="66"/>
       <c r="AF63" s="69"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" s="65"/>
       <c r="B64" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="D64" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66">
-        <v>80</v>
-      </c>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
+      <c r="F64" s="66">
+        <v>0</v>
+      </c>
       <c r="K64" s="67"/>
       <c r="L64" s="68"/>
       <c r="M64" s="70"/>
       <c r="N64" s="69"/>
       <c r="O64" s="70"/>
       <c r="P64" s="70"/>
-      <c r="Q64" s="69"/>
-      <c r="R64" s="69"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
       <c r="U64" s="69"/>
@@ -6431,10 +5579,10 @@
       <c r="AE64" s="66"/>
       <c r="AF64" s="69"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65" s="65"/>
       <c r="B65" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18" t="s">
@@ -6443,11 +5591,11 @@
       <c r="E65" s="66"/>
       <c r="F65" s="66"/>
       <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
+      <c r="H65" s="66">
+        <v>80</v>
+      </c>
       <c r="I65" s="66"/>
-      <c r="J65" s="66">
-        <v>25</v>
-      </c>
+      <c r="J65" s="66"/>
       <c r="K65" s="67"/>
       <c r="L65" s="68"/>
       <c r="M65" s="70"/>
@@ -6471,10 +5619,10 @@
       <c r="AE65" s="66"/>
       <c r="AF65" s="69"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" s="65"/>
       <c r="B66" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="18" t="s">
@@ -6482,24 +5630,20 @@
       </c>
       <c r="E66" s="66"/>
       <c r="F66" s="66"/>
-      <c r="G66" s="66">
-        <v>222.65294723570196</v>
-      </c>
+      <c r="G66" s="66"/>
       <c r="H66" s="66"/>
       <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
+      <c r="J66" s="66">
+        <v>25</v>
+      </c>
       <c r="K66" s="67"/>
       <c r="L66" s="68"/>
       <c r="M66" s="70"/>
       <c r="N66" s="69"/>
       <c r="O66" s="70"/>
       <c r="P66" s="70"/>
-      <c r="Q66" s="69">
-        <v>-5.7665384615384601E-3</v>
-      </c>
-      <c r="R66" s="69">
-        <v>-2.0499230769230798E-3</v>
-      </c>
+      <c r="Q66" s="69"/>
+      <c r="R66" s="69"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
       <c r="U66" s="69"/>
@@ -6515,24 +5659,22 @@
       <c r="AE66" s="66"/>
       <c r="AF66" s="69"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" s="65"/>
       <c r="B67" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E67" s="66">
-        <v>60</v>
-      </c>
+      <c r="E67" s="66"/>
       <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
+      <c r="G67" s="66">
+        <v>222.65294723570196</v>
+      </c>
       <c r="H67" s="66"/>
-      <c r="I67" s="66">
-        <v>60</v>
-      </c>
+      <c r="I67" s="66"/>
       <c r="J67" s="66"/>
       <c r="K67" s="67"/>
       <c r="L67" s="68"/>
@@ -6540,8 +5682,12 @@
       <c r="N67" s="69"/>
       <c r="O67" s="70"/>
       <c r="P67" s="70"/>
-      <c r="Q67" s="69"/>
-      <c r="R67" s="69"/>
+      <c r="Q67" s="69">
+        <v>-5.7665384615384601E-3</v>
+      </c>
+      <c r="R67" s="69">
+        <v>-2.0499230769230798E-3</v>
+      </c>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
       <c r="U67" s="69"/>
@@ -6557,96 +5703,94 @@
       <c r="AE67" s="66"/>
       <c r="AF67" s="69"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68" s="65"/>
       <c r="B68" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E68" s="66"/>
-      <c r="F68" s="99">
-        <v>1.1579527978988799</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E68" s="66">
+        <v>60</v>
+      </c>
+      <c r="F68" s="66"/>
       <c r="G68" s="66"/>
       <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
+      <c r="I68" s="66">
+        <v>60</v>
+      </c>
       <c r="J68" s="66"/>
-      <c r="K68" s="99">
-        <v>1.0436610608020699E-4</v>
-      </c>
-      <c r="L68" s="99">
-        <v>2.7300000000000003E-5</v>
-      </c>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="66"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="70"/>
+      <c r="N68" s="69"/>
+      <c r="O68" s="70"/>
+      <c r="P68" s="70"/>
       <c r="Q68" s="69"/>
       <c r="R68" s="69"/>
       <c r="S68" s="69"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="66"/>
-      <c r="W68" s="66"/>
-      <c r="X68" s="66"/>
+      <c r="T68" s="69"/>
+      <c r="U68" s="69"/>
+      <c r="V68" s="69"/>
+      <c r="W68" s="69"/>
+      <c r="X68" s="69"/>
       <c r="Y68" s="69"/>
+      <c r="Z68" s="69"/>
+      <c r="AA68" s="69"/>
       <c r="AB68" s="69"/>
       <c r="AC68" s="69"/>
       <c r="AD68" s="66"/>
       <c r="AE68" s="66"/>
       <c r="AF68" s="69"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" s="65"/>
       <c r="B69" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18" t="s">
         <v>74</v>
       </c>
       <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
+      <c r="F69" s="99">
+        <v>1.1579527978988799</v>
+      </c>
       <c r="G69" s="66"/>
-      <c r="H69" s="99">
-        <v>8.7925595955590796E-2</v>
-      </c>
+      <c r="H69" s="66"/>
       <c r="I69" s="66"/>
       <c r="J69" s="66"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="69"/>
-      <c r="N69" s="69"/>
-      <c r="O69" s="69"/>
-      <c r="P69" s="69"/>
+      <c r="K69" s="99">
+        <v>1.0436610608020699E-4</v>
+      </c>
+      <c r="L69" s="99">
+        <v>2.7300000000000003E-5</v>
+      </c>
+      <c r="M69" s="66"/>
+      <c r="N69" s="66"/>
+      <c r="O69" s="66"/>
+      <c r="P69" s="66"/>
       <c r="Q69" s="69"/>
       <c r="R69" s="69"/>
       <c r="S69" s="69"/>
-      <c r="T69" s="99">
-        <v>4.1183054892601398E-5</v>
-      </c>
-      <c r="U69" s="99">
-        <v>2.7300000000000003E-5</v>
-      </c>
-      <c r="V69" s="69"/>
-      <c r="W69" s="69"/>
-      <c r="X69" s="69"/>
+      <c r="T69" s="66"/>
+      <c r="U69" s="66"/>
+      <c r="V69" s="66"/>
+      <c r="W69" s="66"/>
+      <c r="X69" s="66"/>
       <c r="Y69" s="69"/>
-      <c r="Z69" s="69"/>
-      <c r="AA69" s="69"/>
       <c r="AB69" s="69"/>
       <c r="AC69" s="69"/>
       <c r="AD69" s="66"/>
       <c r="AE69" s="66"/>
       <c r="AF69" s="69"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" s="65"/>
       <c r="B70" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18" t="s">
@@ -6655,11 +5799,11 @@
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
+      <c r="H70" s="99">
+        <v>8.7925595955590796E-2</v>
+      </c>
       <c r="I70" s="66"/>
-      <c r="J70" s="99">
-        <v>1.3600611202347599</v>
-      </c>
+      <c r="J70" s="66"/>
       <c r="K70" s="69"/>
       <c r="L70" s="69"/>
       <c r="M70" s="69"/>
@@ -6669,28 +5813,28 @@
       <c r="Q70" s="69"/>
       <c r="R70" s="69"/>
       <c r="S70" s="69"/>
-      <c r="T70" s="69"/>
-      <c r="U70" s="69"/>
+      <c r="T70" s="99">
+        <v>4.1183054892601398E-5</v>
+      </c>
+      <c r="U70" s="99">
+        <v>2.7300000000000003E-5</v>
+      </c>
       <c r="V70" s="69"/>
       <c r="W70" s="69"/>
       <c r="X70" s="69"/>
       <c r="Y70" s="69"/>
-      <c r="Z70" s="99">
-        <v>4.1183054892601398E-5</v>
-      </c>
-      <c r="AA70" s="99">
-        <v>4.1183054892601398E-5</v>
-      </c>
+      <c r="Z70" s="69"/>
+      <c r="AA70" s="69"/>
       <c r="AB70" s="69"/>
       <c r="AC70" s="69"/>
       <c r="AD70" s="66"/>
       <c r="AE70" s="66"/>
       <c r="AF70" s="69"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" s="65"/>
       <c r="B71" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18" t="s">
@@ -6698,26 +5842,18 @@
       </c>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
-      <c r="G71" s="99">
-        <v>0</v>
-      </c>
+      <c r="G71" s="66"/>
       <c r="H71" s="66"/>
       <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
+      <c r="J71" s="99">
+        <v>1.3600611202347599</v>
+      </c>
       <c r="K71" s="69"/>
       <c r="L71" s="69"/>
-      <c r="M71" s="99">
-        <v>6.9904433497536902E-2</v>
-      </c>
-      <c r="N71" s="99">
-        <v>1.0436610608020699E-4</v>
-      </c>
-      <c r="O71" s="99">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="P71" s="99">
-        <v>6.9999999999999999E-4</v>
-      </c>
+      <c r="M71" s="69"/>
+      <c r="N71" s="69"/>
+      <c r="O71" s="69"/>
+      <c r="P71" s="69"/>
       <c r="Q71" s="69"/>
       <c r="R71" s="69"/>
       <c r="S71" s="69"/>
@@ -6727,51 +5863,57 @@
       <c r="W71" s="69"/>
       <c r="X71" s="69"/>
       <c r="Y71" s="69"/>
-      <c r="Z71" s="69"/>
-      <c r="AA71" s="69"/>
+      <c r="Z71" s="99">
+        <v>4.1183054892601398E-5</v>
+      </c>
+      <c r="AA71" s="99">
+        <v>4.1183054892601398E-5</v>
+      </c>
       <c r="AB71" s="69"/>
       <c r="AC71" s="69"/>
       <c r="AD71" s="66"/>
       <c r="AE71" s="66"/>
       <c r="AF71" s="69"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72" s="65"/>
       <c r="B72" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E72" s="99">
-        <v>4.8647959610412801E-2</v>
-      </c>
+      <c r="E72" s="66"/>
       <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
+      <c r="G72" s="99">
+        <v>0</v>
+      </c>
       <c r="H72" s="66"/>
-      <c r="I72" s="99">
-        <v>5.4469327676813896E-3</v>
-      </c>
+      <c r="I72" s="66"/>
       <c r="J72" s="66"/>
       <c r="K72" s="69"/>
       <c r="L72" s="69"/>
-      <c r="M72" s="69"/>
-      <c r="N72" s="69"/>
-      <c r="O72" s="69"/>
-      <c r="P72" s="69"/>
+      <c r="M72" s="99">
+        <v>6.9904433497536902E-2</v>
+      </c>
+      <c r="N72" s="99">
+        <v>1.0436610608020699E-4</v>
+      </c>
+      <c r="O72" s="99">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="P72" s="99">
+        <v>6.9999999999999999E-4</v>
+      </c>
       <c r="Q72" s="69"/>
       <c r="R72" s="69"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
       <c r="U72" s="69"/>
       <c r="V72" s="69"/>
-      <c r="W72" s="99">
-        <v>4.1183054892601398E-5</v>
-      </c>
-      <c r="X72" s="99">
-        <v>2.7300000000000003E-5</v>
-      </c>
+      <c r="W72" s="69"/>
+      <c r="X72" s="69"/>
       <c r="Y72" s="69"/>
       <c r="Z72" s="69"/>
       <c r="AA72" s="69"/>
@@ -6781,29 +5923,27 @@
       <c r="AE72" s="66"/>
       <c r="AF72" s="69"/>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73" s="65"/>
       <c r="B73" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C73" s="18"/>
       <c r="D73" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="70">
-        <v>1.2235960844925295E-2</v>
-      </c>
-      <c r="L73" s="70">
-        <v>2.8679121599475579E-2</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E73" s="99">
+        <v>4.8647959610412801E-2</v>
+      </c>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="99">
+        <v>5.4469327676813896E-3</v>
+      </c>
+      <c r="J73" s="66"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="69"/>
       <c r="M73" s="69"/>
       <c r="N73" s="69"/>
       <c r="O73" s="69"/>
@@ -6814,8 +5954,12 @@
       <c r="T73" s="69"/>
       <c r="U73" s="69"/>
       <c r="V73" s="69"/>
-      <c r="W73" s="69"/>
-      <c r="X73" s="69"/>
+      <c r="W73" s="99">
+        <v>4.1183054892601398E-5</v>
+      </c>
+      <c r="X73" s="99">
+        <v>2.7300000000000003E-5</v>
+      </c>
       <c r="Y73" s="69"/>
       <c r="Z73" s="69"/>
       <c r="AA73" s="69"/>
@@ -6825,12 +5969,14 @@
       <c r="AE73" s="66"/>
       <c r="AF73" s="69"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74" s="65"/>
       <c r="B74" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" s="18"/>
+        <v>79</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="D74" s="18" t="s">
         <v>80</v>
       </c>
@@ -6840,8 +5986,12 @@
       <c r="H74" s="70"/>
       <c r="I74" s="70"/>
       <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="70"/>
+      <c r="K74" s="70">
+        <v>1.2235960844925295E-2</v>
+      </c>
+      <c r="L74" s="70">
+        <v>2.8679121599475579E-2</v>
+      </c>
       <c r="M74" s="69"/>
       <c r="N74" s="69"/>
       <c r="O74" s="69"/>
@@ -6849,19 +5999,11 @@
       <c r="Q74" s="69"/>
       <c r="R74" s="69"/>
       <c r="S74" s="69"/>
-      <c r="T74" s="69">
-        <v>3.8704789833822091E-2</v>
-      </c>
-      <c r="U74" s="69">
-        <v>2.8679121599475579E-2</v>
-      </c>
+      <c r="T74" s="69"/>
+      <c r="U74" s="69"/>
       <c r="V74" s="69"/>
-      <c r="W74" s="69">
-        <v>3.8704789833822091E-2</v>
-      </c>
-      <c r="X74" s="69">
-        <v>2.8679121599475579E-2</v>
-      </c>
+      <c r="W74" s="69"/>
+      <c r="X74" s="69"/>
       <c r="Y74" s="69"/>
       <c r="Z74" s="69"/>
       <c r="AA74" s="69"/>
@@ -6871,45 +6013,43 @@
       <c r="AE74" s="66"/>
       <c r="AF74" s="69"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75" s="65"/>
       <c r="B75" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>1</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C75" s="18"/>
       <c r="D75" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E75" s="69"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="69"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="69"/>
-      <c r="J75" s="69"/>
-      <c r="K75" s="69"/>
-      <c r="L75" s="69"/>
-      <c r="M75" s="68">
-        <v>-4.3644839466326904E-3</v>
-      </c>
-      <c r="N75" s="70">
-        <v>9.4130261320566525E-2</v>
-      </c>
-      <c r="O75" s="70">
-        <v>2.6217014385062399E-2</v>
-      </c>
-      <c r="P75" s="68">
-        <v>2.6217014385062399E-2</v>
-      </c>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="70"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="69"/>
+      <c r="O75" s="69"/>
+      <c r="P75" s="69"/>
       <c r="Q75" s="69"/>
       <c r="R75" s="69"/>
       <c r="S75" s="69"/>
-      <c r="T75" s="69"/>
-      <c r="U75" s="69"/>
+      <c r="T75" s="69">
+        <v>3.8704789833822091E-2</v>
+      </c>
+      <c r="U75" s="69">
+        <v>2.8679121599475579E-2</v>
+      </c>
       <c r="V75" s="69"/>
-      <c r="W75" s="69"/>
-      <c r="X75" s="74"/>
+      <c r="W75" s="69">
+        <v>3.8704789833822091E-2</v>
+      </c>
+      <c r="X75" s="69">
+        <v>2.8679121599475579E-2</v>
+      </c>
       <c r="Y75" s="69"/>
       <c r="Z75" s="69"/>
       <c r="AA75" s="69"/>
@@ -6919,12 +6059,14 @@
       <c r="AE75" s="66"/>
       <c r="AF75" s="69"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" s="65"/>
       <c r="B76" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" s="18"/>
+        <v>82</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="D76" s="18" t="s">
         <v>80</v>
       </c>
@@ -6936,10 +6078,18 @@
       <c r="J76" s="69"/>
       <c r="K76" s="69"/>
       <c r="L76" s="69"/>
-      <c r="M76" s="68"/>
-      <c r="N76" s="70"/>
-      <c r="O76" s="70"/>
-      <c r="P76" s="70"/>
+      <c r="M76" s="68">
+        <v>-4.3644839466326904E-3</v>
+      </c>
+      <c r="N76" s="70">
+        <v>9.4130261320566525E-2</v>
+      </c>
+      <c r="O76" s="70">
+        <v>2.6217014385062399E-2</v>
+      </c>
+      <c r="P76" s="68">
+        <v>2.6217014385062399E-2</v>
+      </c>
       <c r="Q76" s="69"/>
       <c r="R76" s="69"/>
       <c r="S76" s="69"/>
@@ -6947,11 +6097,9 @@
       <c r="U76" s="69"/>
       <c r="V76" s="69"/>
       <c r="W76" s="69"/>
-      <c r="X76" s="69"/>
+      <c r="X76" s="74"/>
       <c r="Y76" s="69"/>
-      <c r="Z76" s="69">
-        <v>0.2</v>
-      </c>
+      <c r="Z76" s="69"/>
       <c r="AA76" s="69"/>
       <c r="AB76" s="69"/>
       <c r="AC76" s="69"/>
@@ -6959,23 +6107,27 @@
       <c r="AE76" s="66"/>
       <c r="AF76" s="69"/>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" s="65"/>
       <c r="B77" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="F77" s="95">
-        <v>3.9648584686774943E-2</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="69"/>
+      <c r="J77" s="69"/>
       <c r="K77" s="69"/>
       <c r="L77" s="69"/>
-      <c r="N77" s="69"/>
+      <c r="M77" s="68"/>
+      <c r="N77" s="70"/>
+      <c r="O77" s="70"/>
+      <c r="P77" s="70"/>
       <c r="Q77" s="69"/>
       <c r="R77" s="69"/>
       <c r="S77" s="69"/>
@@ -6985,7 +6137,9 @@
       <c r="W77" s="69"/>
       <c r="X77" s="69"/>
       <c r="Y77" s="69"/>
-      <c r="Z77" s="69"/>
+      <c r="Z77" s="69">
+        <v>0.2</v>
+      </c>
       <c r="AA77" s="69"/>
       <c r="AB77" s="69"/>
       <c r="AC77" s="69"/>
@@ -6993,29 +6147,23 @@
       <c r="AE77" s="66"/>
       <c r="AF77" s="69"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" s="65"/>
       <c r="B78" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="D78" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="95">
-        <v>7.4125614849187935E-2</v>
-      </c>
-      <c r="I78" s="66"/>
-      <c r="J78" s="66"/>
+      <c r="F78" s="95">
+        <v>3.9648584686774943E-2</v>
+      </c>
       <c r="K78" s="69"/>
       <c r="L78" s="69"/>
-      <c r="M78" s="70"/>
       <c r="N78" s="69"/>
-      <c r="O78" s="69"/>
-      <c r="P78" s="69"/>
       <c r="Q78" s="69"/>
       <c r="R78" s="69"/>
       <c r="S78" s="69"/>
@@ -7033,10 +6181,10 @@
       <c r="AE78" s="66"/>
       <c r="AF78" s="69"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79" s="65"/>
       <c r="B79" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="94" t="s">
@@ -7045,11 +6193,11 @@
       <c r="E79" s="66"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
+      <c r="H79" s="95">
+        <v>7.4125614849187935E-2</v>
+      </c>
       <c r="I79" s="66"/>
-      <c r="J79" s="95">
-        <v>3.9648584686774943E-2</v>
-      </c>
+      <c r="J79" s="66"/>
       <c r="K79" s="69"/>
       <c r="L79" s="69"/>
       <c r="M79" s="70"/>
@@ -7073,10 +6221,10 @@
       <c r="AE79" s="66"/>
       <c r="AF79" s="69"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" s="65"/>
       <c r="B80" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="94" t="s">
@@ -7084,24 +6232,18 @@
       </c>
       <c r="E80" s="66"/>
       <c r="F80" s="66"/>
-      <c r="G80" s="95">
-        <v>3.9675174013921115E-2</v>
-      </c>
+      <c r="G80" s="66"/>
       <c r="H80" s="66"/>
       <c r="I80" s="66"/>
-      <c r="J80" s="66"/>
+      <c r="J80" s="95">
+        <v>3.9648584686774943E-2</v>
+      </c>
       <c r="K80" s="69"/>
       <c r="L80" s="69"/>
-      <c r="M80" s="96">
-        <v>5.0116009280742456E-7</v>
-      </c>
-      <c r="N80" s="67"/>
-      <c r="O80" s="96">
-        <v>7.6705721024701148E-6</v>
-      </c>
-      <c r="P80" s="96">
-        <v>7.6705721024701148E-6</v>
-      </c>
+      <c r="M80" s="70"/>
+      <c r="N80" s="69"/>
+      <c r="O80" s="69"/>
+      <c r="P80" s="69"/>
       <c r="Q80" s="69"/>
       <c r="R80" s="69"/>
       <c r="S80" s="69"/>
@@ -7119,31 +6261,35 @@
       <c r="AE80" s="66"/>
       <c r="AF80" s="69"/>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" s="65"/>
       <c r="B81" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="95">
-        <v>7.0677911832946624E-2</v>
-      </c>
+      <c r="E81" s="66"/>
       <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
+      <c r="G81" s="95">
+        <v>3.9675174013921115E-2</v>
+      </c>
       <c r="H81" s="66"/>
-      <c r="I81" s="95">
-        <v>7.6711392111368903E-2</v>
-      </c>
+      <c r="I81" s="66"/>
       <c r="J81" s="66"/>
       <c r="K81" s="69"/>
       <c r="L81" s="69"/>
-      <c r="M81" s="70"/>
-      <c r="N81" s="69"/>
-      <c r="O81" s="69"/>
-      <c r="P81" s="69"/>
+      <c r="M81" s="96">
+        <v>5.0116009280742456E-7</v>
+      </c>
+      <c r="N81" s="67"/>
+      <c r="O81" s="96">
+        <v>7.6705721024701148E-6</v>
+      </c>
+      <c r="P81" s="96">
+        <v>7.6705721024701148E-6</v>
+      </c>
       <c r="Q81" s="69"/>
       <c r="R81" s="69"/>
       <c r="S81" s="69"/>
@@ -7161,28 +6307,28 @@
       <c r="AE81" s="66"/>
       <c r="AF81" s="69"/>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82" s="65"/>
       <c r="B82" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C82" s="18"/>
       <c r="D82" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="69"/>
-      <c r="I82" s="69"/>
-      <c r="J82" s="69"/>
-      <c r="K82" s="96">
-        <v>7.1482792035602622E-6</v>
-      </c>
+      <c r="E82" s="95">
+        <v>7.0677911832946624E-2</v>
+      </c>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="95">
+        <v>7.6711392111368903E-2</v>
+      </c>
+      <c r="J82" s="66"/>
+      <c r="K82" s="69"/>
       <c r="L82" s="69"/>
-      <c r="M82" s="69"/>
+      <c r="M82" s="70"/>
       <c r="N82" s="69"/>
       <c r="O82" s="69"/>
       <c r="P82" s="69"/>
@@ -7203,10 +6349,10 @@
       <c r="AE82" s="66"/>
       <c r="AF82" s="69"/>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83" s="65"/>
       <c r="B83" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>1</v>
@@ -7214,22 +6360,30 @@
       <c r="D83" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="F83" s="97">
-        <v>2.5839000000000001E-5</v>
-      </c>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69"/>
       <c r="K83" s="96">
-        <v>3.4024809153397656E-6</v>
-      </c>
-      <c r="L83" s="96">
-        <v>5.7825194437216395E-6</v>
-      </c>
+        <v>7.1482792035602622E-6</v>
+      </c>
+      <c r="L83" s="69"/>
       <c r="M83" s="69"/>
       <c r="N83" s="69"/>
+      <c r="O83" s="69"/>
+      <c r="P83" s="69"/>
       <c r="Q83" s="69"/>
       <c r="R83" s="69"/>
       <c r="S83" s="69"/>
+      <c r="T83" s="69"/>
+      <c r="U83" s="69"/>
       <c r="V83" s="69"/>
+      <c r="W83" s="69"/>
+      <c r="X83" s="69"/>
       <c r="Y83" s="69"/>
+      <c r="Z83" s="69"/>
       <c r="AA83" s="69"/>
       <c r="AB83" s="69"/>
       <c r="AC83" s="69"/>
@@ -7237,43 +6391,33 @@
       <c r="AE83" s="66"/>
       <c r="AF83" s="69"/>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A84" s="65"/>
       <c r="B84" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="D84" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="95">
+      <c r="F84" s="97">
         <v>2.5839000000000001E-5</v>
       </c>
-      <c r="I84" s="69"/>
-      <c r="J84" s="69"/>
-      <c r="K84" s="69"/>
-      <c r="L84" s="69"/>
+      <c r="K84" s="96">
+        <v>3.4024809153397656E-6</v>
+      </c>
+      <c r="L84" s="96">
+        <v>5.7825194437216395E-6</v>
+      </c>
       <c r="M84" s="69"/>
       <c r="N84" s="69"/>
-      <c r="O84" s="69"/>
-      <c r="P84" s="69"/>
       <c r="Q84" s="69"/>
       <c r="R84" s="69"/>
       <c r="S84" s="69"/>
-      <c r="T84" s="96">
-        <v>1.7816745466515056E-5</v>
-      </c>
-      <c r="U84" s="96">
-        <v>5.7825194437216395E-6</v>
-      </c>
       <c r="V84" s="69"/>
-      <c r="W84" s="66"/>
-      <c r="X84" s="73"/>
       <c r="Y84" s="69"/>
-      <c r="Z84" s="73"/>
       <c r="AA84" s="69"/>
       <c r="AB84" s="69"/>
       <c r="AC84" s="69"/>
@@ -7281,10 +6425,10 @@
       <c r="AE84" s="66"/>
       <c r="AF84" s="69"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85" s="65"/>
       <c r="B85" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="94" t="s">
@@ -7293,11 +6437,11 @@
       <c r="E85" s="69"/>
       <c r="F85" s="69"/>
       <c r="G85" s="69"/>
-      <c r="H85" s="69"/>
+      <c r="H85" s="95">
+        <v>2.5839000000000001E-5</v>
+      </c>
       <c r="I85" s="69"/>
-      <c r="J85" s="95">
-        <v>2.576112412177986E-5</v>
-      </c>
+      <c r="J85" s="69"/>
       <c r="K85" s="69"/>
       <c r="L85" s="69"/>
       <c r="M85" s="69"/>
@@ -7307,15 +6451,17 @@
       <c r="Q85" s="69"/>
       <c r="R85" s="69"/>
       <c r="S85" s="69"/>
-      <c r="T85" s="69"/>
-      <c r="U85" s="69"/>
+      <c r="T85" s="96">
+        <v>1.7816745466515056E-5</v>
+      </c>
+      <c r="U85" s="96">
+        <v>5.7825194437216395E-6</v>
+      </c>
       <c r="V85" s="69"/>
       <c r="W85" s="66"/>
       <c r="X85" s="73"/>
       <c r="Y85" s="69"/>
-      <c r="Z85" s="96">
-        <v>3.4799999999999999E-5</v>
-      </c>
+      <c r="Z85" s="73"/>
       <c r="AA85" s="69"/>
       <c r="AB85" s="69"/>
       <c r="AC85" s="69"/>
@@ -7323,10 +6469,10 @@
       <c r="AE85" s="66"/>
       <c r="AF85" s="69"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A86" s="65"/>
       <c r="B86" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="94" t="s">
@@ -7334,22 +6480,18 @@
       </c>
       <c r="E86" s="69"/>
       <c r="F86" s="69"/>
-      <c r="G86" s="96">
-        <v>0</v>
-      </c>
+      <c r="G86" s="69"/>
       <c r="H86" s="69"/>
       <c r="I86" s="69"/>
-      <c r="J86" s="69"/>
+      <c r="J86" s="95">
+        <v>2.576112412177986E-5</v>
+      </c>
       <c r="K86" s="69"/>
       <c r="L86" s="69"/>
       <c r="M86" s="69"/>
       <c r="N86" s="69"/>
-      <c r="O86" s="96">
-        <v>7.1280166357054341E-6</v>
-      </c>
-      <c r="P86" s="96">
-        <v>7.1280166357054341E-6</v>
-      </c>
+      <c r="O86" s="69"/>
+      <c r="P86" s="69"/>
       <c r="Q86" s="69"/>
       <c r="R86" s="69"/>
       <c r="S86" s="69"/>
@@ -7359,7 +6501,9 @@
       <c r="W86" s="66"/>
       <c r="X86" s="73"/>
       <c r="Y86" s="69"/>
-      <c r="Z86" s="73"/>
+      <c r="Z86" s="96">
+        <v>3.4799999999999999E-5</v>
+      </c>
       <c r="AA86" s="69"/>
       <c r="AB86" s="69"/>
       <c r="AC86" s="69"/>
@@ -7367,43 +6511,41 @@
       <c r="AE86" s="66"/>
       <c r="AF86" s="69"/>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87" s="65"/>
       <c r="B87" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="E87" s="96">
-        <v>2.5839000000000001E-5</v>
-      </c>
+      <c r="E87" s="69"/>
       <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
+      <c r="G87" s="96">
+        <v>0</v>
+      </c>
       <c r="H87" s="69"/>
-      <c r="I87" s="96">
-        <v>2.5839000000000001E-5</v>
-      </c>
+      <c r="I87" s="69"/>
       <c r="J87" s="69"/>
       <c r="K87" s="69"/>
       <c r="L87" s="69"/>
       <c r="M87" s="69"/>
       <c r="N87" s="69"/>
-      <c r="O87" s="69"/>
-      <c r="P87" s="69"/>
+      <c r="O87" s="96">
+        <v>7.1280166357054341E-6</v>
+      </c>
+      <c r="P87" s="96">
+        <v>7.1280166357054341E-6</v>
+      </c>
       <c r="Q87" s="69"/>
       <c r="R87" s="69"/>
       <c r="S87" s="69"/>
       <c r="T87" s="69"/>
       <c r="U87" s="69"/>
       <c r="V87" s="69"/>
-      <c r="W87" s="66">
-        <v>0</v>
-      </c>
-      <c r="X87" s="98">
-        <v>5.7825194437216395E-6</v>
-      </c>
+      <c r="W87" s="66"/>
+      <c r="X87" s="73"/>
       <c r="Y87" s="69"/>
       <c r="Z87" s="73"/>
       <c r="AA87" s="69"/>
@@ -7413,33 +6555,43 @@
       <c r="AE87" s="66"/>
       <c r="AF87" s="69"/>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A88" s="65"/>
       <c r="B88" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="18"/>
-      <c r="D88" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E88" s="69"/>
+      <c r="D88" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="96">
+        <v>2.5839000000000001E-5</v>
+      </c>
       <c r="F88" s="69"/>
       <c r="G88" s="69"/>
       <c r="H88" s="69"/>
-      <c r="I88" s="69"/>
+      <c r="I88" s="96">
+        <v>2.5839000000000001E-5</v>
+      </c>
       <c r="J88" s="69"/>
       <c r="K88" s="69"/>
-      <c r="L88" s="69">
-        <v>8.0000000000000004E-4</v>
-      </c>
+      <c r="L88" s="69"/>
       <c r="M88" s="69"/>
       <c r="N88" s="69"/>
+      <c r="O88" s="69"/>
+      <c r="P88" s="69"/>
       <c r="Q88" s="69"/>
       <c r="R88" s="69"/>
       <c r="S88" s="69"/>
       <c r="T88" s="69"/>
+      <c r="U88" s="69"/>
       <c r="V88" s="69"/>
-      <c r="W88" s="69"/>
+      <c r="W88" s="66">
+        <v>0</v>
+      </c>
+      <c r="X88" s="98">
+        <v>5.7825194437216395E-6</v>
+      </c>
       <c r="Y88" s="69"/>
       <c r="Z88" s="73"/>
       <c r="AA88" s="69"/>
@@ -7449,10 +6601,10 @@
       <c r="AE88" s="66"/>
       <c r="AF88" s="69"/>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89" s="65"/>
       <c r="B89" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="18" t="s">
@@ -7465,21 +6617,17 @@
       <c r="I89" s="69"/>
       <c r="J89" s="69"/>
       <c r="K89" s="69"/>
-      <c r="L89" s="69"/>
+      <c r="L89" s="69">
+        <v>8.0000000000000004E-4</v>
+      </c>
       <c r="M89" s="69"/>
       <c r="N89" s="69"/>
-      <c r="O89" s="69"/>
-      <c r="P89" s="69"/>
       <c r="Q89" s="69"/>
       <c r="R89" s="69"/>
       <c r="S89" s="69"/>
       <c r="T89" s="69"/>
-      <c r="U89" s="69">
-        <v>8.0000000000000004E-4</v>
-      </c>
       <c r="V89" s="69"/>
       <c r="W89" s="69"/>
-      <c r="X89" s="73"/>
       <c r="Y89" s="69"/>
       <c r="Z89" s="73"/>
       <c r="AA89" s="69"/>
@@ -7489,10 +6637,10 @@
       <c r="AE89" s="66"/>
       <c r="AF89" s="69"/>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A90" s="65"/>
       <c r="B90" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="18" t="s">
@@ -7508,17 +6656,15 @@
       <c r="L90" s="69"/>
       <c r="M90" s="69"/>
       <c r="N90" s="69"/>
-      <c r="O90" s="69">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="P90" s="69">
-        <v>2.5000000000000001E-4</v>
-      </c>
+      <c r="O90" s="69"/>
+      <c r="P90" s="69"/>
       <c r="Q90" s="69"/>
       <c r="R90" s="69"/>
       <c r="S90" s="69"/>
       <c r="T90" s="69"/>
-      <c r="U90" s="69"/>
+      <c r="U90" s="69">
+        <v>8.0000000000000004E-4</v>
+      </c>
       <c r="V90" s="69"/>
       <c r="W90" s="69"/>
       <c r="X90" s="73"/>
@@ -7531,10 +6677,10 @@
       <c r="AE90" s="66"/>
       <c r="AF90" s="69"/>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91" s="65"/>
       <c r="B91" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="18" t="s">
@@ -7550,8 +6696,12 @@
       <c r="L91" s="69"/>
       <c r="M91" s="69"/>
       <c r="N91" s="69"/>
-      <c r="O91" s="69"/>
-      <c r="P91" s="69"/>
+      <c r="O91" s="69">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="P91" s="69">
+        <v>2.5000000000000001E-4</v>
+      </c>
       <c r="Q91" s="69"/>
       <c r="R91" s="69"/>
       <c r="S91" s="69"/>
@@ -7559,9 +6709,7 @@
       <c r="U91" s="69"/>
       <c r="V91" s="69"/>
       <c r="W91" s="69"/>
-      <c r="X91" s="73">
-        <v>8.0000000000000004E-4</v>
-      </c>
+      <c r="X91" s="73"/>
       <c r="Y91" s="69"/>
       <c r="Z91" s="73"/>
       <c r="AA91" s="69"/>
@@ -7571,10 +6719,10 @@
       <c r="AE91" s="66"/>
       <c r="AF91" s="69"/>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A92" s="65"/>
       <c r="B92" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="18" t="s">
@@ -7587,29 +6735,34 @@
       <c r="I92" s="69"/>
       <c r="J92" s="69"/>
       <c r="K92" s="69"/>
-      <c r="L92" s="69">
-        <v>2.1000000000000003E-3</v>
-      </c>
+      <c r="L92" s="69"/>
       <c r="M92" s="69"/>
       <c r="N92" s="69"/>
+      <c r="O92" s="69"/>
+      <c r="P92" s="69"/>
       <c r="Q92" s="69"/>
       <c r="R92" s="69"/>
       <c r="S92" s="69"/>
       <c r="T92" s="69"/>
+      <c r="U92" s="69"/>
       <c r="V92" s="69"/>
       <c r="W92" s="69"/>
+      <c r="X92" s="73">
+        <v>8.0000000000000004E-4</v>
+      </c>
       <c r="Y92" s="69"/>
-      <c r="Z92" s="74"/>
+      <c r="Z92" s="73"/>
+      <c r="AA92" s="69"/>
       <c r="AB92" s="69"/>
       <c r="AC92" s="69"/>
       <c r="AD92" s="66"/>
       <c r="AE92" s="66"/>
       <c r="AF92" s="69"/>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A93" s="65"/>
       <c r="B93" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C93" s="18"/>
       <c r="D93" s="18" t="s">
@@ -7622,34 +6775,29 @@
       <c r="I93" s="69"/>
       <c r="J93" s="69"/>
       <c r="K93" s="69"/>
-      <c r="L93" s="69"/>
+      <c r="L93" s="69">
+        <v>2.1000000000000003E-3</v>
+      </c>
       <c r="M93" s="69"/>
       <c r="N93" s="69"/>
-      <c r="O93" s="69"/>
-      <c r="P93" s="69"/>
       <c r="Q93" s="69"/>
       <c r="R93" s="69"/>
       <c r="S93" s="69"/>
       <c r="T93" s="69"/>
-      <c r="U93" s="69">
-        <v>2.1000000000000003E-3</v>
-      </c>
       <c r="V93" s="69"/>
       <c r="W93" s="69"/>
-      <c r="X93" s="73"/>
       <c r="Y93" s="69"/>
       <c r="Z93" s="74"/>
-      <c r="AA93" s="69"/>
       <c r="AB93" s="69"/>
       <c r="AC93" s="69"/>
       <c r="AD93" s="66"/>
       <c r="AE93" s="66"/>
       <c r="AF93" s="69"/>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A94" s="65"/>
       <c r="B94" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" s="18"/>
       <c r="D94" s="18" t="s">
@@ -7671,25 +6819,25 @@
       <c r="R94" s="69"/>
       <c r="S94" s="69"/>
       <c r="T94" s="69"/>
-      <c r="U94" s="69"/>
+      <c r="U94" s="69">
+        <v>2.1000000000000003E-3</v>
+      </c>
       <c r="V94" s="69"/>
       <c r="W94" s="69"/>
       <c r="X94" s="73"/>
       <c r="Y94" s="69"/>
       <c r="Z94" s="74"/>
-      <c r="AA94" s="69">
-        <v>4.7600000000000003E-3</v>
-      </c>
+      <c r="AA94" s="69"/>
       <c r="AB94" s="69"/>
       <c r="AC94" s="69"/>
       <c r="AD94" s="66"/>
       <c r="AE94" s="66"/>
       <c r="AF94" s="69"/>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A95" s="65"/>
       <c r="B95" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="18" t="s">
@@ -7705,12 +6853,8 @@
       <c r="L95" s="69"/>
       <c r="M95" s="69"/>
       <c r="N95" s="69"/>
-      <c r="O95" s="69">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="P95" s="69">
-        <v>2.8999999999999998E-3</v>
-      </c>
+      <c r="O95" s="69"/>
+      <c r="P95" s="69"/>
       <c r="Q95" s="69"/>
       <c r="R95" s="69"/>
       <c r="S95" s="69"/>
@@ -7721,17 +6865,19 @@
       <c r="X95" s="73"/>
       <c r="Y95" s="69"/>
       <c r="Z95" s="74"/>
-      <c r="AA95" s="69"/>
+      <c r="AA95" s="69">
+        <v>4.7600000000000003E-3</v>
+      </c>
       <c r="AB95" s="69"/>
       <c r="AC95" s="69"/>
       <c r="AD95" s="66"/>
       <c r="AE95" s="66"/>
       <c r="AF95" s="69"/>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A96" s="65"/>
       <c r="B96" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="18" t="s">
@@ -7747,8 +6893,12 @@
       <c r="L96" s="69"/>
       <c r="M96" s="69"/>
       <c r="N96" s="69"/>
-      <c r="O96" s="69"/>
-      <c r="P96" s="69"/>
+      <c r="O96" s="69">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="P96" s="69">
+        <v>2.8999999999999998E-3</v>
+      </c>
       <c r="Q96" s="69"/>
       <c r="R96" s="69"/>
       <c r="S96" s="69"/>
@@ -7756,9 +6906,7 @@
       <c r="U96" s="69"/>
       <c r="V96" s="69"/>
       <c r="W96" s="69"/>
-      <c r="X96" s="73">
-        <v>2.1000000000000003E-3</v>
-      </c>
+      <c r="X96" s="73"/>
       <c r="Y96" s="69"/>
       <c r="Z96" s="74"/>
       <c r="AA96" s="69"/>
@@ -7768,10 +6916,10 @@
       <c r="AE96" s="66"/>
       <c r="AF96" s="69"/>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A97" s="65"/>
       <c r="B97" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C97" s="18"/>
       <c r="D97" s="18" t="s">
@@ -7784,17 +6932,21 @@
       <c r="I97" s="69"/>
       <c r="J97" s="69"/>
       <c r="K97" s="69"/>
-      <c r="L97" s="69">
-        <v>1.9E-3</v>
-      </c>
+      <c r="L97" s="69"/>
       <c r="M97" s="69"/>
       <c r="N97" s="69"/>
+      <c r="O97" s="69"/>
+      <c r="P97" s="69"/>
       <c r="Q97" s="69"/>
       <c r="R97" s="69"/>
       <c r="S97" s="69"/>
       <c r="T97" s="69"/>
+      <c r="U97" s="69"/>
       <c r="V97" s="69"/>
       <c r="W97" s="69"/>
+      <c r="X97" s="73">
+        <v>2.1000000000000003E-3</v>
+      </c>
       <c r="Y97" s="69"/>
       <c r="Z97" s="74"/>
       <c r="AA97" s="69"/>
@@ -7804,10 +6956,10 @@
       <c r="AE97" s="66"/>
       <c r="AF97" s="69"/>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A98" s="65"/>
       <c r="B98" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="18" t="s">
@@ -7820,21 +6972,17 @@
       <c r="I98" s="69"/>
       <c r="J98" s="69"/>
       <c r="K98" s="69"/>
-      <c r="L98" s="69"/>
+      <c r="L98" s="69">
+        <v>1.9E-3</v>
+      </c>
       <c r="M98" s="69"/>
       <c r="N98" s="69"/>
-      <c r="O98" s="69"/>
-      <c r="P98" s="69"/>
       <c r="Q98" s="69"/>
       <c r="R98" s="69"/>
       <c r="S98" s="69"/>
       <c r="T98" s="69"/>
-      <c r="U98" s="69">
-        <v>1.9E-3</v>
-      </c>
       <c r="V98" s="69"/>
       <c r="W98" s="69"/>
-      <c r="X98" s="73"/>
       <c r="Y98" s="69"/>
       <c r="Z98" s="74"/>
       <c r="AA98" s="69"/>
@@ -7844,10 +6992,10 @@
       <c r="AE98" s="66"/>
       <c r="AF98" s="69"/>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A99" s="65"/>
       <c r="B99" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C99" s="18"/>
       <c r="D99" s="18" t="s">
@@ -7863,17 +7011,15 @@
       <c r="L99" s="69"/>
       <c r="M99" s="69"/>
       <c r="N99" s="69"/>
-      <c r="O99" s="69">
-        <v>0</v>
-      </c>
-      <c r="P99" s="69">
-        <v>0</v>
-      </c>
+      <c r="O99" s="69"/>
+      <c r="P99" s="69"/>
       <c r="Q99" s="69"/>
       <c r="R99" s="69"/>
       <c r="S99" s="69"/>
       <c r="T99" s="69"/>
-      <c r="U99" s="69"/>
+      <c r="U99" s="69">
+        <v>1.9E-3</v>
+      </c>
       <c r="V99" s="69"/>
       <c r="W99" s="69"/>
       <c r="X99" s="73"/>
@@ -7886,10 +7032,10 @@
       <c r="AE99" s="66"/>
       <c r="AF99" s="69"/>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A100" s="65"/>
       <c r="B100" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C100" s="18"/>
       <c r="D100" s="18" t="s">
@@ -7905,8 +7051,12 @@
       <c r="L100" s="69"/>
       <c r="M100" s="69"/>
       <c r="N100" s="69"/>
-      <c r="O100" s="69"/>
-      <c r="P100" s="69"/>
+      <c r="O100" s="69">
+        <v>0</v>
+      </c>
+      <c r="P100" s="69">
+        <v>0</v>
+      </c>
       <c r="Q100" s="69"/>
       <c r="R100" s="69"/>
       <c r="S100" s="69"/>
@@ -7914,9 +7064,7 @@
       <c r="U100" s="69"/>
       <c r="V100" s="69"/>
       <c r="W100" s="69"/>
-      <c r="X100" s="73">
-        <v>1.9E-3</v>
-      </c>
+      <c r="X100" s="73"/>
       <c r="Y100" s="69"/>
       <c r="Z100" s="74"/>
       <c r="AA100" s="69"/>
@@ -7926,10 +7074,10 @@
       <c r="AE100" s="66"/>
       <c r="AF100" s="69"/>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A101" s="65"/>
       <c r="B101" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18" t="s">
@@ -7942,29 +7090,34 @@
       <c r="I101" s="69"/>
       <c r="J101" s="69"/>
       <c r="K101" s="69"/>
-      <c r="L101" s="69">
-        <v>8.9999999999999993E-3</v>
-      </c>
+      <c r="L101" s="69"/>
       <c r="M101" s="69"/>
       <c r="N101" s="69"/>
+      <c r="O101" s="69"/>
+      <c r="P101" s="69"/>
       <c r="Q101" s="69"/>
       <c r="R101" s="69"/>
       <c r="S101" s="69"/>
       <c r="T101" s="69"/>
+      <c r="U101" s="69"/>
       <c r="V101" s="69"/>
       <c r="W101" s="69"/>
+      <c r="X101" s="73">
+        <v>1.9E-3</v>
+      </c>
       <c r="Y101" s="69"/>
       <c r="Z101" s="74"/>
+      <c r="AA101" s="69"/>
       <c r="AB101" s="69"/>
       <c r="AC101" s="69"/>
       <c r="AD101" s="66"/>
       <c r="AE101" s="66"/>
       <c r="AF101" s="69"/>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A102" s="65"/>
       <c r="B102" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="18" t="s">
@@ -7977,34 +7130,29 @@
       <c r="I102" s="69"/>
       <c r="J102" s="69"/>
       <c r="K102" s="69"/>
-      <c r="L102" s="69"/>
+      <c r="L102" s="69">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="M102" s="69"/>
       <c r="N102" s="69"/>
-      <c r="O102" s="66"/>
-      <c r="P102" s="66"/>
       <c r="Q102" s="69"/>
       <c r="R102" s="69"/>
       <c r="S102" s="69"/>
       <c r="T102" s="69"/>
-      <c r="U102" s="69">
-        <v>8.9999999999999993E-3</v>
-      </c>
       <c r="V102" s="69"/>
       <c r="W102" s="69"/>
-      <c r="X102" s="69"/>
       <c r="Y102" s="69"/>
       <c r="Z102" s="74"/>
-      <c r="AA102" s="72"/>
       <c r="AB102" s="69"/>
       <c r="AC102" s="69"/>
       <c r="AD102" s="66"/>
       <c r="AE102" s="66"/>
       <c r="AF102" s="69"/>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A103" s="65"/>
       <c r="B103" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C103" s="18"/>
       <c r="D103" s="18" t="s">
@@ -8026,10 +7174,12 @@
       <c r="R103" s="69"/>
       <c r="S103" s="69"/>
       <c r="T103" s="69"/>
-      <c r="U103" s="69"/>
+      <c r="U103" s="69">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="V103" s="69"/>
       <c r="W103" s="69"/>
-      <c r="X103" s="73"/>
+      <c r="X103" s="69"/>
       <c r="Y103" s="69"/>
       <c r="Z103" s="74"/>
       <c r="AA103" s="72"/>
@@ -8039,10 +7189,10 @@
       <c r="AE103" s="66"/>
       <c r="AF103" s="69"/>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A104" s="65"/>
       <c r="B104" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="18" t="s">
@@ -8058,12 +7208,8 @@
       <c r="L104" s="69"/>
       <c r="M104" s="69"/>
       <c r="N104" s="69"/>
-      <c r="O104" s="70">
-        <v>4.5300000000000002E-3</v>
-      </c>
-      <c r="P104" s="70">
-        <v>4.5300000000000002E-3</v>
-      </c>
+      <c r="O104" s="66"/>
+      <c r="P104" s="66"/>
       <c r="Q104" s="69"/>
       <c r="R104" s="69"/>
       <c r="S104" s="69"/>
@@ -8074,19 +7220,17 @@
       <c r="X104" s="73"/>
       <c r="Y104" s="69"/>
       <c r="Z104" s="74"/>
-      <c r="AA104" s="72">
-        <v>2.2179999999999998E-2</v>
-      </c>
+      <c r="AA104" s="72"/>
       <c r="AB104" s="69"/>
       <c r="AC104" s="69"/>
       <c r="AD104" s="66"/>
       <c r="AE104" s="66"/>
       <c r="AF104" s="69"/>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A105" s="65"/>
       <c r="B105" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="18" t="s">
@@ -8102,8 +7246,12 @@
       <c r="L105" s="69"/>
       <c r="M105" s="69"/>
       <c r="N105" s="69"/>
-      <c r="O105" s="70"/>
-      <c r="P105" s="70"/>
+      <c r="O105" s="70">
+        <v>4.5300000000000002E-3</v>
+      </c>
+      <c r="P105" s="70">
+        <v>4.5300000000000002E-3</v>
+      </c>
       <c r="Q105" s="69"/>
       <c r="R105" s="69"/>
       <c r="S105" s="69"/>
@@ -8111,80 +7259,64 @@
       <c r="U105" s="69"/>
       <c r="V105" s="69"/>
       <c r="W105" s="69"/>
-      <c r="X105" s="73">
-        <v>8.9999999999999993E-3</v>
-      </c>
+      <c r="X105" s="73"/>
       <c r="Y105" s="69"/>
       <c r="Z105" s="74"/>
-      <c r="AA105" s="72"/>
+      <c r="AA105" s="72">
+        <v>2.2179999999999998E-2</v>
+      </c>
       <c r="AB105" s="69"/>
       <c r="AC105" s="69"/>
       <c r="AD105" s="66"/>
       <c r="AE105" s="66"/>
       <c r="AF105" s="69"/>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A106" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="B106" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" s="77" t="s">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A106" s="65"/>
+      <c r="B106" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E106" s="78">
-        <v>6.1928571428571431</v>
-      </c>
-      <c r="F106" s="78">
-        <v>0</v>
-      </c>
-      <c r="G106" s="78">
-        <v>16.704340371428568</v>
-      </c>
-      <c r="H106" s="78">
-        <v>17.46385714285714</v>
-      </c>
-      <c r="I106" s="78">
-        <v>6.1928571428571431</v>
-      </c>
-      <c r="J106" s="78">
-        <v>1.5482142857142855</v>
-      </c>
-      <c r="K106" s="40"/>
-      <c r="L106" s="40"/>
-      <c r="M106" s="40">
-        <v>3.6390700000000004E-5</v>
-      </c>
-      <c r="N106" s="40"/>
-      <c r="O106" s="40"/>
-      <c r="P106" s="40"/>
-      <c r="Q106" s="40"/>
-      <c r="R106" s="40"/>
-      <c r="S106" s="40"/>
-      <c r="T106" s="40"/>
-      <c r="U106" s="40"/>
-      <c r="V106" s="40"/>
-      <c r="W106" s="40"/>
-      <c r="X106" s="40"/>
-      <c r="Y106" s="40"/>
-      <c r="Z106" s="40"/>
-      <c r="AA106" s="40"/>
-      <c r="AB106" s="40"/>
-      <c r="AC106" s="40"/>
-      <c r="AD106" s="40"/>
-      <c r="AE106" s="40"/>
-      <c r="AF106" s="40"/>
-    </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E106" s="69"/>
+      <c r="F106" s="69"/>
+      <c r="G106" s="69"/>
+      <c r="H106" s="69"/>
+      <c r="I106" s="69"/>
+      <c r="J106" s="69"/>
+      <c r="K106" s="69"/>
+      <c r="L106" s="69"/>
+      <c r="M106" s="69"/>
+      <c r="N106" s="69"/>
+      <c r="O106" s="70"/>
+      <c r="P106" s="70"/>
+      <c r="Q106" s="69"/>
+      <c r="R106" s="69"/>
+      <c r="S106" s="69"/>
+      <c r="T106" s="69"/>
+      <c r="U106" s="69"/>
+      <c r="V106" s="69"/>
+      <c r="W106" s="69"/>
+      <c r="X106" s="73">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Y106" s="69"/>
+      <c r="Z106" s="74"/>
+      <c r="AA106" s="72"/>
+      <c r="AB106" s="69"/>
+      <c r="AC106" s="69"/>
+      <c r="AD106" s="66"/>
+      <c r="AE106" s="66"/>
+      <c r="AF106" s="69"/>
+    </row>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A107" s="75" t="s">
         <v>113</v>
       </c>
       <c r="B107" s="76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107" s="76" t="s">
         <v>1</v>
@@ -8193,26 +7325,28 @@
         <v>32</v>
       </c>
       <c r="E107" s="78">
-        <v>0</v>
+        <v>6.1928571428571431</v>
       </c>
       <c r="F107" s="78">
         <v>0</v>
       </c>
-      <c r="G107" s="79">
-        <v>7740</v>
+      <c r="G107" s="78">
+        <v>16.704340371428568</v>
       </c>
       <c r="H107" s="78">
-        <v>0</v>
+        <v>17.46385714285714</v>
       </c>
       <c r="I107" s="78">
-        <v>0</v>
+        <v>6.1928571428571431</v>
       </c>
       <c r="J107" s="78">
-        <v>0</v>
+        <v>1.5482142857142855</v>
       </c>
       <c r="K107" s="40"/>
       <c r="L107" s="40"/>
-      <c r="M107" s="40"/>
+      <c r="M107" s="40">
+        <v>3.6390700000000004E-5</v>
+      </c>
       <c r="N107" s="40"/>
       <c r="O107" s="40"/>
       <c r="P107" s="40"/>
@@ -8222,7 +7356,7 @@
       <c r="T107" s="40"/>
       <c r="U107" s="40"/>
       <c r="V107" s="40"/>
-      <c r="W107" s="80"/>
+      <c r="W107" s="40"/>
       <c r="X107" s="40"/>
       <c r="Y107" s="40"/>
       <c r="Z107" s="40"/>
@@ -8233,12 +7367,12 @@
       <c r="AE107" s="40"/>
       <c r="AF107" s="40"/>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A108" s="75" t="s">
         <v>113</v>
       </c>
       <c r="B108" s="76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108" s="76" t="s">
         <v>1</v>
@@ -8247,28 +7381,26 @@
         <v>32</v>
       </c>
       <c r="E108" s="78">
-        <v>1.7277720549257143</v>
+        <v>0</v>
       </c>
       <c r="F108" s="78">
-        <v>0.68850440403360003</v>
-      </c>
-      <c r="G108" s="78">
-        <v>11.730407258291923</v>
+        <v>0</v>
+      </c>
+      <c r="G108" s="79">
+        <v>7740</v>
       </c>
       <c r="H108" s="78">
-        <v>4.1324165896082139</v>
+        <v>0</v>
       </c>
       <c r="I108" s="78">
-        <v>1.6426465387577145</v>
+        <v>0</v>
       </c>
       <c r="J108" s="78">
-        <v>1.3929379431644286</v>
+        <v>0</v>
       </c>
       <c r="K108" s="40"/>
       <c r="L108" s="40"/>
-      <c r="M108" s="40">
-        <v>8.7296999999999988E-6</v>
-      </c>
+      <c r="M108" s="40"/>
       <c r="N108" s="40"/>
       <c r="O108" s="40"/>
       <c r="P108" s="40"/>
@@ -8278,7 +7410,7 @@
       <c r="T108" s="40"/>
       <c r="U108" s="40"/>
       <c r="V108" s="40"/>
-      <c r="W108" s="40"/>
+      <c r="W108" s="80"/>
       <c r="X108" s="40"/>
       <c r="Y108" s="40"/>
       <c r="Z108" s="40"/>
@@ -8289,30 +7421,42 @@
       <c r="AE108" s="40"/>
       <c r="AF108" s="40"/>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A109" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" s="75" t="s">
+      <c r="B109" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="76" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E109" s="81"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="81"/>
-      <c r="H109" s="81"/>
-      <c r="I109" s="81"/>
-      <c r="J109" s="81"/>
-      <c r="K109" s="82">
-        <v>2.009273570324575E-4</v>
-      </c>
+      <c r="E109" s="78">
+        <v>1.7277720549257143</v>
+      </c>
+      <c r="F109" s="78">
+        <v>0.68850440403360003</v>
+      </c>
+      <c r="G109" s="78">
+        <v>11.730407258291923</v>
+      </c>
+      <c r="H109" s="78">
+        <v>4.1324165896082139</v>
+      </c>
+      <c r="I109" s="78">
+        <v>1.6426465387577145</v>
+      </c>
+      <c r="J109" s="78">
+        <v>1.3929379431644286</v>
+      </c>
+      <c r="K109" s="40"/>
       <c r="L109" s="40"/>
-      <c r="M109" s="40"/>
+      <c r="M109" s="40">
+        <v>8.7296999999999988E-6</v>
+      </c>
       <c r="N109" s="40"/>
       <c r="O109" s="40"/>
       <c r="P109" s="40"/>
@@ -8333,14 +7477,14 @@
       <c r="AE109" s="40"/>
       <c r="AF109" s="40"/>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A110" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="C110" s="76" t="s">
+      <c r="B110" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" s="75" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="77" t="s">
@@ -8352,11 +7496,11 @@
       <c r="H110" s="81"/>
       <c r="I110" s="81"/>
       <c r="J110" s="81"/>
-      <c r="K110" s="40"/>
+      <c r="K110" s="82">
+        <v>2.009273570324575E-4</v>
+      </c>
       <c r="L110" s="40"/>
-      <c r="M110" s="40">
-        <v>4.7250000000000003E-5</v>
-      </c>
+      <c r="M110" s="40"/>
       <c r="N110" s="40"/>
       <c r="O110" s="40"/>
       <c r="P110" s="40"/>
@@ -8377,14 +7521,14 @@
       <c r="AE110" s="40"/>
       <c r="AF110" s="40"/>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A111" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="C111" s="75" t="s">
+      <c r="B111" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" s="76" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="77" t="s">
@@ -8399,7 +7543,7 @@
       <c r="K111" s="40"/>
       <c r="L111" s="40"/>
       <c r="M111" s="40">
-        <v>8.6831299499999983E-3</v>
+        <v>4.7250000000000003E-5</v>
       </c>
       <c r="N111" s="40"/>
       <c r="O111" s="40"/>
@@ -8417,16 +7561,16 @@
       <c r="AA111" s="40"/>
       <c r="AB111" s="40"/>
       <c r="AC111" s="40"/>
-      <c r="AD111" s="83"/>
-      <c r="AE111" s="83"/>
+      <c r="AD111" s="40"/>
+      <c r="AE111" s="40"/>
       <c r="AF111" s="40"/>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A112" s="75" t="s">
         <v>113</v>
       </c>
       <c r="B112" s="75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C112" s="75" t="s">
         <v>1</v>
@@ -8434,27 +7578,17 @@
       <c r="D112" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E112" s="78">
-        <v>1.928571428571429</v>
-      </c>
-      <c r="F112" s="78">
-        <v>0</v>
-      </c>
-      <c r="G112" s="78">
-        <v>5.2020437142857148</v>
-      </c>
-      <c r="H112" s="78">
-        <v>5.4385714285714286</v>
-      </c>
-      <c r="I112" s="78">
-        <v>1.928571428571429</v>
-      </c>
-      <c r="J112" s="78">
-        <v>0.48214285714285721</v>
-      </c>
+      <c r="E112" s="81"/>
+      <c r="F112" s="81"/>
+      <c r="G112" s="81"/>
+      <c r="H112" s="81"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="81"/>
       <c r="K112" s="40"/>
       <c r="L112" s="40"/>
-      <c r="M112" s="40"/>
+      <c r="M112" s="40">
+        <v>8.6831299499999983E-3</v>
+      </c>
       <c r="N112" s="40"/>
       <c r="O112" s="40"/>
       <c r="P112" s="40"/>
@@ -8471,52 +7605,46 @@
       <c r="AA112" s="40"/>
       <c r="AB112" s="40"/>
       <c r="AC112" s="40"/>
-      <c r="AD112" s="40"/>
-      <c r="AE112" s="40"/>
+      <c r="AD112" s="83"/>
+      <c r="AE112" s="83"/>
       <c r="AF112" s="40"/>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A113" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="B113" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="C113" s="76" t="s">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A113" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D113" s="76" t="s">
+      <c r="D113" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E113" s="84">
-        <v>112.73783278628574</v>
-      </c>
-      <c r="F113" s="84">
-        <v>47.518300241280009</v>
-      </c>
-      <c r="G113" s="84">
-        <v>479.69164207453417</v>
-      </c>
-      <c r="H113" s="84">
-        <v>266.85519213728571</v>
-      </c>
-      <c r="I113" s="84">
-        <v>106.86275077988574</v>
-      </c>
-      <c r="J113" s="84">
-        <v>94.50915462497143</v>
-      </c>
-      <c r="K113" s="92">
-        <v>3.8639876352395676E-9</v>
-      </c>
+      <c r="E113" s="78">
+        <v>1.928571428571429</v>
+      </c>
+      <c r="F113" s="78">
+        <v>0</v>
+      </c>
+      <c r="G113" s="78">
+        <v>5.2020437142857148</v>
+      </c>
+      <c r="H113" s="78">
+        <v>5.4385714285714286</v>
+      </c>
+      <c r="I113" s="78">
+        <v>1.928571428571429</v>
+      </c>
+      <c r="J113" s="78">
+        <v>0.48214285714285721</v>
+      </c>
+      <c r="K113" s="40"/>
       <c r="L113" s="40"/>
       <c r="M113" s="40"/>
-      <c r="N113" s="86">
-        <v>1.3464991023339318E-6</v>
-      </c>
-      <c r="O113" s="40">
-        <v>8.7000095265313894E-5</v>
-      </c>
+      <c r="N113" s="40"/>
+      <c r="O113" s="40"/>
       <c r="P113" s="40"/>
       <c r="Q113" s="40"/>
       <c r="R113" s="40"/>
@@ -8535,31 +7663,49 @@
       <c r="AE113" s="40"/>
       <c r="AF113" s="40"/>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A114" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="B114" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="C114" s="76"/>
+      <c r="B114" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" s="76" t="s">
+        <v>1</v>
+      </c>
       <c r="D114" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="E114" s="88"/>
-      <c r="F114" s="88"/>
-      <c r="G114" s="88"/>
-      <c r="H114" s="88"/>
-      <c r="I114" s="88"/>
-      <c r="J114" s="88"/>
-      <c r="K114" s="85"/>
+      <c r="E114" s="84">
+        <v>112.73783278628574</v>
+      </c>
+      <c r="F114" s="84">
+        <v>47.518300241280009</v>
+      </c>
+      <c r="G114" s="84">
+        <v>479.69164207453417</v>
+      </c>
+      <c r="H114" s="84">
+        <v>266.85519213728571</v>
+      </c>
+      <c r="I114" s="84">
+        <v>106.86275077988574</v>
+      </c>
+      <c r="J114" s="84">
+        <v>94.50915462497143</v>
+      </c>
+      <c r="K114" s="92">
+        <v>3.8639876352395676E-9</v>
+      </c>
       <c r="L114" s="40"/>
       <c r="M114" s="40"/>
-      <c r="N114" s="86"/>
-      <c r="O114" s="40"/>
-      <c r="P114" s="40">
+      <c r="N114" s="86">
+        <v>1.3464991023339318E-6</v>
+      </c>
+      <c r="O114" s="40">
         <v>8.7000095265313894E-5</v>
       </c>
+      <c r="P114" s="40"/>
       <c r="Q114" s="40"/>
       <c r="R114" s="40"/>
       <c r="S114" s="40"/>
@@ -8577,2580 +7723,2622 @@
       <c r="AE114" s="40"/>
       <c r="AF114" s="40"/>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A115" s="89" t="s">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A115" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115" s="88"/>
+      <c r="F115" s="88"/>
+      <c r="G115" s="88"/>
+      <c r="H115" s="88"/>
+      <c r="I115" s="88"/>
+      <c r="J115" s="88"/>
+      <c r="K115" s="85"/>
+      <c r="L115" s="40"/>
+      <c r="M115" s="40"/>
+      <c r="N115" s="86"/>
+      <c r="O115" s="40"/>
+      <c r="P115" s="40">
+        <v>8.7000095265313894E-5</v>
+      </c>
+      <c r="Q115" s="40"/>
+      <c r="R115" s="40"/>
+      <c r="S115" s="40"/>
+      <c r="T115" s="40"/>
+      <c r="U115" s="40"/>
+      <c r="V115" s="40"/>
+      <c r="W115" s="40"/>
+      <c r="X115" s="40"/>
+      <c r="Y115" s="40"/>
+      <c r="Z115" s="40"/>
+      <c r="AA115" s="40"/>
+      <c r="AB115" s="40"/>
+      <c r="AC115" s="40"/>
+      <c r="AD115" s="40"/>
+      <c r="AE115" s="40"/>
+      <c r="AF115" s="40"/>
+    </row>
+    <row r="116" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A116" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="B115" s="89" t="s">
+      <c r="B116" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="C115" s="89"/>
-      <c r="D115" s="89" t="s">
+      <c r="C116" s="89"/>
+      <c r="D116" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="E115" s="90">
+      <c r="E116" s="90">
         <v>1</v>
       </c>
-      <c r="F115" s="90">
+      <c r="F116" s="90">
         <v>1</v>
       </c>
-      <c r="G115" s="90">
+      <c r="G116" s="90">
         <v>1</v>
       </c>
-      <c r="H115" s="90">
+      <c r="H116" s="90">
         <v>1</v>
       </c>
-      <c r="I115" s="90">
+      <c r="I116" s="90">
         <v>1</v>
       </c>
-      <c r="J115" s="90">
+      <c r="J116" s="90">
         <v>1</v>
       </c>
-      <c r="K115" s="90"/>
-      <c r="L115" s="90"/>
-      <c r="M115" s="90"/>
-      <c r="N115" s="90"/>
-      <c r="O115" s="90"/>
-      <c r="P115" s="90"/>
-      <c r="Q115" s="90"/>
-      <c r="R115" s="90"/>
-      <c r="S115" s="90"/>
-      <c r="T115" s="90"/>
-      <c r="U115" s="90"/>
-      <c r="V115" s="90"/>
-      <c r="W115" s="90"/>
-      <c r="X115" s="90"/>
-      <c r="Y115" s="90"/>
-      <c r="Z115" s="90"/>
-      <c r="AA115" s="90"/>
-      <c r="AB115" s="90"/>
-      <c r="AC115" s="90"/>
-      <c r="AD115" s="90"/>
-      <c r="AE115" s="90"/>
-      <c r="AF115" s="90"/>
-    </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B127"/>
-    </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K116" s="90"/>
+      <c r="L116" s="90"/>
+      <c r="M116" s="90"/>
+      <c r="N116" s="90"/>
+      <c r="O116" s="90"/>
+      <c r="P116" s="90"/>
+      <c r="Q116" s="90"/>
+      <c r="R116" s="90"/>
+      <c r="S116" s="90"/>
+      <c r="T116" s="90"/>
+      <c r="U116" s="90"/>
+      <c r="V116" s="90"/>
+      <c r="W116" s="90"/>
+      <c r="X116" s="90"/>
+      <c r="Y116" s="90"/>
+      <c r="Z116" s="90"/>
+      <c r="AA116" s="90"/>
+      <c r="AB116" s="90"/>
+      <c r="AC116" s="90"/>
+      <c r="AD116" s="90"/>
+      <c r="AE116" s="90"/>
+      <c r="AF116" s="90"/>
+    </row>
+    <row r="128" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B128"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B256"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B266"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B267"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B272"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B282"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B283"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B284"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B286"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B289"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B290"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B291"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B292"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B293"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B294"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B295"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B296"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B297"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B298"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B299"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B300"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B301"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B302"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B303"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B304"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B305"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B306"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B308"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B310"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B311"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B312"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B313"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B314"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B315"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B316"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B317"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B318"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B319"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B320"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B321"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B322"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B323"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B324"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B325"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B326"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B327"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B328"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B329"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B330"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B331"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B332"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B333"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B334"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B335"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B336"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B337"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B338"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B339"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B340"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B341"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B342"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B343"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B344"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B345"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B346"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B347"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B348"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B349"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B350"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B351"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B352"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B353"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B354"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B355"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B356"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B357"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B358"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B359"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B360"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B361"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B362"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B363"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B364"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B365"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B366"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B367"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B368"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B369"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B370"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B371"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B372"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B373"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B374"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B375"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B376"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B377"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B378"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B379"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B380"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B381"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B382"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B383"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B384"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B385"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B386"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B387"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B388"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B389"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B390"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B391"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B392"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B393"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B394"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B395"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B396"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B397"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B398"/>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B399"/>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B400"/>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B401"/>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B402"/>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B403"/>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B404"/>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B405"/>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B406"/>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B407"/>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B408"/>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B409"/>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B410"/>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B411"/>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B412"/>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B413"/>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B414"/>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B415"/>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B416"/>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B417"/>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B418"/>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B419"/>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B420"/>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B421"/>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B422"/>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B423"/>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B424"/>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B425"/>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B426"/>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B427"/>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B428"/>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B429"/>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B430"/>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B431"/>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B432"/>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B433"/>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B434"/>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B435"/>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B436"/>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B437"/>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B438"/>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B439"/>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B440"/>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B441"/>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B442"/>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B443"/>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B444"/>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B445"/>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B446"/>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B447"/>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B448"/>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B449"/>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B450"/>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B451"/>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B452"/>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B453"/>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B454"/>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B455"/>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B456"/>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B457"/>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B458"/>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B459"/>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B460"/>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B461"/>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B462"/>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B463"/>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B464"/>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B465"/>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B466"/>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B467"/>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B468"/>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B469"/>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B470"/>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B471"/>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B472"/>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B473"/>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B474"/>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B475"/>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B476"/>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B477"/>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B478"/>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B479"/>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B480"/>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B481"/>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B482"/>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B483"/>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B484"/>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B485"/>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B486"/>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B487"/>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B488"/>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B489"/>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B490"/>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B491"/>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B492"/>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B493"/>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B494"/>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B495"/>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B496"/>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B497"/>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B498"/>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B499"/>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B500"/>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B501"/>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B502"/>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B503"/>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B504"/>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B505"/>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B506"/>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B507"/>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B508"/>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B509"/>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B510"/>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B511"/>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B512"/>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B513"/>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B514"/>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B515"/>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B516"/>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B517"/>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B518"/>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B519"/>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B520"/>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B521"/>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B522"/>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B523"/>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B524"/>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B525"/>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B526"/>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B527"/>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B528"/>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B529"/>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B530"/>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B531"/>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B532"/>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B533"/>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B534"/>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B535"/>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B536"/>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B537"/>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B538"/>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B539"/>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B540"/>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B541"/>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B542"/>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B543"/>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B544"/>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B545"/>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B546"/>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B547"/>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B548"/>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B549"/>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B550"/>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B551"/>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B552"/>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B553"/>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B554"/>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B555"/>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B556"/>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B557"/>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B558"/>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B559"/>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B560"/>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B561"/>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B562"/>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B563"/>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B564"/>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B565"/>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B566"/>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B567"/>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B568"/>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B569"/>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B570"/>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B571"/>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B572"/>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B573"/>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B574"/>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B575"/>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B576"/>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B577"/>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B578"/>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B579"/>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B580"/>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B581"/>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B582"/>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B583"/>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B584"/>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B585"/>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B586"/>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B587"/>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B588"/>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B589"/>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B590"/>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B591"/>
     </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B592"/>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B593"/>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B594"/>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B595"/>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B596"/>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B597"/>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B598"/>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B599"/>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B600"/>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B601"/>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B602"/>
     </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B603"/>
     </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B604"/>
     </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B605"/>
     </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B606"/>
     </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B607"/>
     </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B608"/>
     </row>
-    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B609"/>
     </row>
-    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B610"/>
     </row>
-    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B611"/>
     </row>
-    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B612"/>
     </row>
-    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B613"/>
     </row>
-    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B614"/>
     </row>
-    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B615"/>
     </row>
-    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B616"/>
     </row>
-    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B617"/>
     </row>
-    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B618"/>
     </row>
-    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B619"/>
     </row>
-    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B620"/>
     </row>
-    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B621"/>
     </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B622"/>
     </row>
-    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B623"/>
     </row>
-    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B624"/>
     </row>
-    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B625"/>
     </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B626"/>
     </row>
-    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B627"/>
     </row>
-    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B628"/>
     </row>
-    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B629"/>
     </row>
-    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B630"/>
     </row>
-    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B631"/>
     </row>
-    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B632"/>
     </row>
-    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B633"/>
     </row>
-    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B634"/>
     </row>
-    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B635"/>
     </row>
-    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B636"/>
     </row>
-    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B637"/>
     </row>
-    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B638"/>
     </row>
-    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B639"/>
     </row>
-    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B640"/>
     </row>
-    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B641"/>
     </row>
-    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B642"/>
     </row>
-    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B643"/>
     </row>
-    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B644"/>
     </row>
-    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B645"/>
     </row>
-    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B646"/>
     </row>
-    <row r="647" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B647"/>
     </row>
-    <row r="648" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B648"/>
     </row>
-    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B649"/>
     </row>
-    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B650"/>
     </row>
-    <row r="651" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B651"/>
     </row>
-    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B652"/>
     </row>
-    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B653"/>
     </row>
-    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B654"/>
     </row>
-    <row r="655" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B655"/>
     </row>
-    <row r="656" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B656"/>
     </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B657"/>
     </row>
-    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B658"/>
     </row>
-    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B659"/>
     </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B660"/>
     </row>
-    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B661"/>
     </row>
-    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B662"/>
     </row>
-    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B663"/>
     </row>
-    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B664"/>
     </row>
-    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B665"/>
     </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B666"/>
     </row>
-    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B667"/>
     </row>
-    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B668"/>
     </row>
-    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B669"/>
     </row>
-    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B670"/>
     </row>
-    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B671"/>
     </row>
-    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B672"/>
     </row>
-    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B673"/>
     </row>
-    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B674"/>
     </row>
-    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B675"/>
     </row>
-    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B676"/>
     </row>
-    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B677"/>
     </row>
-    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B678"/>
     </row>
-    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B679"/>
     </row>
-    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B680"/>
     </row>
-    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B681"/>
     </row>
-    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B682"/>
     </row>
-    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B683"/>
     </row>
-    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B684"/>
     </row>
-    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B685"/>
     </row>
-    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B686"/>
     </row>
-    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B687"/>
     </row>
-    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B688"/>
     </row>
-    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B689"/>
     </row>
-    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B690"/>
     </row>
-    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B691"/>
     </row>
-    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B692"/>
     </row>
-    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B693"/>
     </row>
-    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B694"/>
     </row>
-    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B695"/>
     </row>
-    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B696"/>
     </row>
-    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B697"/>
     </row>
-    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B698"/>
     </row>
-    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B699"/>
     </row>
-    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B700"/>
     </row>
-    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B701"/>
     </row>
-    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B702"/>
     </row>
-    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B703"/>
     </row>
-    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B704"/>
     </row>
-    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B705"/>
     </row>
-    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B706"/>
     </row>
-    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B707"/>
     </row>
-    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B708"/>
     </row>
-    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B709"/>
     </row>
-    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B710"/>
     </row>
-    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B711"/>
     </row>
-    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B712"/>
     </row>
-    <row r="713" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B713"/>
     </row>
-    <row r="714" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B714"/>
     </row>
-    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B715"/>
     </row>
-    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B716"/>
     </row>
-    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B717"/>
     </row>
-    <row r="718" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B718"/>
     </row>
-    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B719"/>
     </row>
-    <row r="720" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B720"/>
     </row>
-    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B721"/>
     </row>
-    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B722"/>
     </row>
-    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B723"/>
     </row>
-    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B724"/>
     </row>
-    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B725"/>
     </row>
-    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B726"/>
     </row>
-    <row r="727" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B727"/>
     </row>
-    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B728"/>
     </row>
-    <row r="729" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B729"/>
     </row>
-    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B730"/>
     </row>
-    <row r="731" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B731"/>
     </row>
-    <row r="732" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B732"/>
     </row>
-    <row r="733" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B733"/>
     </row>
-    <row r="734" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B734"/>
     </row>
-    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B735"/>
     </row>
-    <row r="736" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B736"/>
     </row>
-    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B737"/>
     </row>
-    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B738"/>
     </row>
-    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B739"/>
     </row>
-    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B740"/>
     </row>
-    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B741"/>
     </row>
-    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B742"/>
     </row>
-    <row r="743" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B743"/>
     </row>
-    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B744"/>
     </row>
-    <row r="745" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B745"/>
     </row>
-    <row r="746" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B746"/>
     </row>
-    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B747"/>
     </row>
-    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B748"/>
     </row>
-    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B749"/>
     </row>
-    <row r="750" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B750"/>
     </row>
-    <row r="751" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B751"/>
     </row>
-    <row r="752" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B752"/>
     </row>
-    <row r="753" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B753"/>
     </row>
-    <row r="754" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B754"/>
     </row>
-    <row r="755" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B755"/>
     </row>
-    <row r="756" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B756"/>
     </row>
-    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B757"/>
     </row>
-    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B758"/>
     </row>
-    <row r="759" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B759"/>
     </row>
-    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B760"/>
     </row>
-    <row r="761" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B761"/>
     </row>
-    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B762"/>
     </row>
-    <row r="763" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B763"/>
     </row>
-    <row r="764" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B764"/>
     </row>
-    <row r="765" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B765"/>
     </row>
-    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B766"/>
     </row>
-    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B767"/>
     </row>
-    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B768"/>
     </row>
-    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B769"/>
     </row>
-    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B770"/>
     </row>
-    <row r="771" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B771"/>
     </row>
-    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B772"/>
     </row>
-    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B773"/>
     </row>
-    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B774"/>
     </row>
-    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B775"/>
     </row>
-    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B776"/>
     </row>
-    <row r="777" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B777"/>
     </row>
-    <row r="778" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B778"/>
     </row>
-    <row r="779" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B779"/>
     </row>
-    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B780"/>
     </row>
-    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B781"/>
     </row>
-    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B782"/>
     </row>
-    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B783"/>
     </row>
-    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B784"/>
     </row>
-    <row r="785" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B785"/>
     </row>
-    <row r="786" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B786"/>
     </row>
-    <row r="787" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B787"/>
     </row>
-    <row r="788" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B788"/>
     </row>
-    <row r="789" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B789"/>
     </row>
-    <row r="790" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B790"/>
     </row>
-    <row r="791" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B791"/>
     </row>
-    <row r="792" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B792"/>
     </row>
-    <row r="793" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B793"/>
     </row>
-    <row r="794" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B794"/>
     </row>
-    <row r="795" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B795"/>
     </row>
-    <row r="796" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B796"/>
     </row>
-    <row r="797" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B797"/>
     </row>
-    <row r="798" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B798"/>
     </row>
-    <row r="799" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B799"/>
     </row>
-    <row r="800" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B800"/>
     </row>
-    <row r="801" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B801"/>
     </row>
-    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B802"/>
     </row>
-    <row r="803" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B803"/>
     </row>
-    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B804"/>
     </row>
-    <row r="805" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B805"/>
     </row>
-    <row r="806" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B806"/>
     </row>
-    <row r="807" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B807"/>
     </row>
-    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B808"/>
     </row>
-    <row r="809" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B809"/>
     </row>
-    <row r="810" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B810"/>
     </row>
-    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B811"/>
     </row>
-    <row r="812" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B812"/>
     </row>
-    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B813"/>
     </row>
-    <row r="814" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B814"/>
     </row>
-    <row r="815" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B815"/>
     </row>
-    <row r="816" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B816"/>
     </row>
-    <row r="817" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B817"/>
     </row>
-    <row r="818" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B818"/>
     </row>
-    <row r="819" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B819"/>
     </row>
-    <row r="820" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B820"/>
     </row>
-    <row r="821" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B821"/>
     </row>
-    <row r="822" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B822"/>
     </row>
-    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B823"/>
     </row>
-    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B824"/>
     </row>
-    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B825"/>
     </row>
-    <row r="826" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B826"/>
     </row>
-    <row r="827" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B827"/>
     </row>
-    <row r="828" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B828"/>
     </row>
-    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B829"/>
     </row>
-    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B830"/>
     </row>
-    <row r="831" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B831"/>
     </row>
-    <row r="832" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B832"/>
     </row>
-    <row r="833" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B833"/>
     </row>
-    <row r="834" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B834"/>
     </row>
-    <row r="835" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B835"/>
     </row>
-    <row r="836" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B836"/>
     </row>
-    <row r="837" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B837"/>
     </row>
-    <row r="838" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B838"/>
     </row>
-    <row r="839" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B839"/>
     </row>
-    <row r="840" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B840"/>
     </row>
-    <row r="841" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B841"/>
     </row>
-    <row r="842" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B842"/>
     </row>
-    <row r="843" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B843"/>
     </row>
-    <row r="844" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B844"/>
     </row>
-    <row r="845" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B845"/>
     </row>
-    <row r="846" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B846"/>
     </row>
-    <row r="847" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B847"/>
     </row>
-    <row r="848" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B848"/>
     </row>
-    <row r="849" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B849"/>
     </row>
-    <row r="850" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B850"/>
     </row>
-    <row r="851" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B851"/>
     </row>
-    <row r="852" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B852"/>
     </row>
-    <row r="853" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B853"/>
     </row>
-    <row r="854" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B854"/>
     </row>
-    <row r="855" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B855"/>
     </row>
-    <row r="856" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B856"/>
     </row>
-    <row r="857" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B857"/>
     </row>
-    <row r="858" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B858"/>
     </row>
-    <row r="859" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B859"/>
     </row>
-    <row r="860" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B860"/>
     </row>
-    <row r="861" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B861"/>
     </row>
-    <row r="862" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B862"/>
     </row>
-    <row r="863" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B863"/>
     </row>
-    <row r="864" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B864"/>
     </row>
-    <row r="865" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B865"/>
     </row>
-    <row r="866" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B866"/>
     </row>
-    <row r="867" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B867"/>
     </row>
-    <row r="868" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B868"/>
     </row>
-    <row r="869" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B869"/>
     </row>
-    <row r="870" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B870"/>
     </row>
-    <row r="871" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B871"/>
     </row>
-    <row r="872" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B872"/>
     </row>
-    <row r="873" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B873"/>
     </row>
-    <row r="874" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B874"/>
     </row>
-    <row r="875" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B875"/>
     </row>
-    <row r="876" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B876"/>
     </row>
-    <row r="877" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B877"/>
     </row>
-    <row r="878" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B878"/>
     </row>
-    <row r="879" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B879"/>
     </row>
-    <row r="880" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B880"/>
     </row>
-    <row r="881" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B881"/>
     </row>
-    <row r="882" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B882"/>
     </row>
-    <row r="883" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B883"/>
     </row>
-    <row r="884" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B884"/>
     </row>
-    <row r="885" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B885"/>
     </row>
-    <row r="886" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B886"/>
     </row>
-    <row r="887" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B887"/>
     </row>
-    <row r="888" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B888"/>
     </row>
-    <row r="889" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B889"/>
     </row>
-    <row r="890" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B890"/>
     </row>
-    <row r="891" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B891"/>
     </row>
-    <row r="892" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B892"/>
     </row>
-    <row r="893" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B893"/>
     </row>
-    <row r="894" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B894"/>
     </row>
-    <row r="895" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B895"/>
     </row>
-    <row r="896" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B896"/>
     </row>
-    <row r="897" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B897"/>
     </row>
-    <row r="898" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B898"/>
     </row>
-    <row r="899" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B899"/>
     </row>
-    <row r="900" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B900"/>
     </row>
-    <row r="901" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B901"/>
     </row>
-    <row r="902" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B902"/>
     </row>
-    <row r="903" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B903"/>
     </row>
-    <row r="904" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B904"/>
     </row>
-    <row r="905" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B905"/>
     </row>
-    <row r="906" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B906"/>
     </row>
-    <row r="907" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B907"/>
     </row>
-    <row r="908" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B908"/>
     </row>
-    <row r="909" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B909"/>
     </row>
-    <row r="910" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B910"/>
     </row>
-    <row r="911" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B911"/>
     </row>
-    <row r="912" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B912"/>
     </row>
-    <row r="913" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B913"/>
     </row>
-    <row r="914" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B914"/>
     </row>
-    <row r="915" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B915"/>
     </row>
-    <row r="916" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B916"/>
     </row>
-    <row r="917" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B917"/>
     </row>
-    <row r="918" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B918"/>
     </row>
-    <row r="919" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B919"/>
     </row>
-    <row r="920" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B920"/>
     </row>
-    <row r="921" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B921"/>
     </row>
-    <row r="922" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B922"/>
     </row>
-    <row r="923" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B923"/>
     </row>
-    <row r="924" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B924"/>
     </row>
-    <row r="925" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B925"/>
     </row>
-    <row r="926" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B926"/>
     </row>
-    <row r="927" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B927"/>
     </row>
-    <row r="928" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B928"/>
     </row>
-    <row r="929" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B929"/>
     </row>
-    <row r="930" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B930"/>
     </row>
-    <row r="931" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B931"/>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B932"/>
     </row>
-    <row r="933" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B933"/>
     </row>
-    <row r="934" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B934"/>
     </row>
-    <row r="935" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B935"/>
     </row>
-    <row r="936" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B936"/>
     </row>
-    <row r="937" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B937"/>
     </row>
-    <row r="938" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B938"/>
     </row>
-    <row r="939" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B939"/>
     </row>
-    <row r="940" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B940"/>
     </row>
-    <row r="941" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B941"/>
     </row>
-    <row r="942" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B942"/>
     </row>
-    <row r="943" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B943"/>
     </row>
-    <row r="944" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B944"/>
     </row>
-    <row r="945" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B945"/>
     </row>
-    <row r="946" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B946"/>
     </row>
-    <row r="947" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B947"/>
     </row>
-    <row r="948" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B948"/>
     </row>
-    <row r="949" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B949"/>
     </row>
-    <row r="950" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B950"/>
     </row>
-    <row r="951" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B951"/>
     </row>
-    <row r="952" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B952"/>
     </row>
-    <row r="953" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B953"/>
     </row>
-    <row r="954" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B954"/>
     </row>
-    <row r="955" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B955"/>
     </row>
-    <row r="956" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B956"/>
     </row>
-    <row r="957" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B957"/>
     </row>
-    <row r="958" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B958"/>
     </row>
-    <row r="959" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B959"/>
     </row>
-    <row r="960" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B960"/>
     </row>
-    <row r="961" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B961"/>
     </row>
-    <row r="962" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B962"/>
     </row>
-    <row r="963" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B963"/>
     </row>
-    <row r="964" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B964"/>
     </row>
-    <row r="965" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B965"/>
     </row>
-    <row r="966" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B966"/>
     </row>
-    <row r="967" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B967"/>
+    </row>
+    <row r="968" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B968"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:X1 Z1 AF1">
@@ -11276,7 +10464,7 @@
       <formula>99.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26 B28">
+  <conditionalFormatting sqref="B27 B29">
     <cfRule type="cellIs" dxfId="247" priority="236" operator="greaterThanOrEqual">
       <formula>99.95</formula>
     </cfRule>
@@ -11317,7 +10505,7 @@
       <formula>99.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
+  <conditionalFormatting sqref="B32">
     <cfRule type="cellIs" dxfId="234" priority="223" operator="greaterThanOrEqual">
       <formula>99.95</formula>
     </cfRule>
@@ -11358,7 +10546,7 @@
       <formula>99.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B114">
+  <conditionalFormatting sqref="B115">
     <cfRule type="cellIs" dxfId="221" priority="209" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -11402,7 +10590,7 @@
       <formula>99.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
+  <conditionalFormatting sqref="B30">
     <cfRule type="cellIs" dxfId="207" priority="196" operator="greaterThanOrEqual">
       <formula>99.95</formula>
     </cfRule>
@@ -11443,7 +10631,7 @@
       <formula>99.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
+  <conditionalFormatting sqref="B36">
     <cfRule type="cellIs" dxfId="194" priority="183" operator="greaterThanOrEqual">
       <formula>99.95</formula>
     </cfRule>
@@ -11730,7 +10918,7 @@
       <formula>99.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B28">
     <cfRule type="cellIs" dxfId="103" priority="92" operator="greaterThanOrEqual">
       <formula>99.95</formula>
     </cfRule>
@@ -11771,7 +10959,7 @@
       <formula>99.95</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
+  <conditionalFormatting sqref="B31">
     <cfRule type="cellIs" dxfId="90" priority="79" operator="greaterThanOrEqual">
       <formula>99.95</formula>
     </cfRule>
